--- a/Data/params_struc.xlsx
+++ b/Data/params_struc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramodhegde/Documents/DSA/chapter_1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D82EC-2DB0-4741-BA20-61973BC784D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4176280-D7AF-E94F-8555-28749808BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="60" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>thetar</t>
   </si>
@@ -97,7 +98,7 @@
     <t>large</t>
   </si>
   <si>
-    <t>BD (g/cm3)</t>
+    <t>BD</t>
   </si>
   <si>
     <t>Root Density</t>
@@ -138,12 +139,27 @@
   <si>
     <t>D100</t>
   </si>
+  <si>
+    <t>awc</t>
+  </si>
+  <si>
+    <t>pwc</t>
+  </si>
+  <si>
+    <t>Field_Capacity</t>
+  </si>
+  <si>
+    <t>Growth_Cease_Point</t>
+  </si>
+  <si>
+    <t>Permanent_Wilting_Point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,6 +290,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -620,9 +643,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,6 +938,9 @@
           <cell r="I6">
             <v>202.68299163899889</v>
           </cell>
+          <cell r="J6"/>
+          <cell r="K6"/>
+          <cell r="L6"/>
           <cell r="M6">
             <v>1.8651</v>
           </cell>
@@ -929,6 +956,9 @@
           <cell r="Q6">
             <v>4.5366411486452334E-3</v>
           </cell>
+          <cell r="R6"/>
+          <cell r="S6"/>
+          <cell r="T6"/>
         </row>
         <row r="7">
           <cell r="A7">
@@ -1152,6 +1182,9 @@
           <cell r="I11">
             <v>202.68299163899889</v>
           </cell>
+          <cell r="J11"/>
+          <cell r="K11"/>
+          <cell r="L11"/>
           <cell r="M11">
             <v>1.8283</v>
           </cell>
@@ -1167,6 +1200,9 @@
           <cell r="Q11">
             <v>6.3202145855514272E-4</v>
           </cell>
+          <cell r="R11"/>
+          <cell r="S11"/>
+          <cell r="T11"/>
         </row>
         <row r="12">
           <cell r="A12">
@@ -1390,6 +1426,9 @@
           <cell r="I16">
             <v>202.68299163899889</v>
           </cell>
+          <cell r="J16"/>
+          <cell r="K16"/>
+          <cell r="L16"/>
           <cell r="M16">
             <v>1.8246</v>
           </cell>
@@ -1405,6 +1444,9 @@
           <cell r="Q16">
             <v>1.0745844939368491E-3</v>
           </cell>
+          <cell r="R16"/>
+          <cell r="S16"/>
+          <cell r="T16"/>
         </row>
         <row r="17">
           <cell r="A17">
@@ -1628,6 +1670,9 @@
           <cell r="I21">
             <v>202.68299163899889</v>
           </cell>
+          <cell r="J21"/>
+          <cell r="K21"/>
+          <cell r="L21"/>
           <cell r="M21">
             <v>1.9139999999999999</v>
           </cell>
@@ -1643,6 +1688,9 @@
           <cell r="Q21">
             <v>4.2628145214023734E-4</v>
           </cell>
+          <cell r="R21"/>
+          <cell r="S21"/>
+          <cell r="T21"/>
         </row>
         <row r="22">
           <cell r="A22">
@@ -56731,6 +56779,598 @@
           </cell>
           <cell r="L26" t="str">
             <v>NPK+Disturbance</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="swrc_indices"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.31524830263934001</v>
+          </cell>
+          <cell r="C2">
+            <v>0.108033100476431</v>
+          </cell>
+          <cell r="D2">
+            <v>7.8987351070704204E-2</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Disturbance</v>
+          </cell>
+          <cell r="F2">
+            <v>0.236260951568636</v>
+          </cell>
+          <cell r="G2">
+            <v>0.20721520216290801</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>0.36615142449791299</v>
+          </cell>
+          <cell r="C3">
+            <v>5.0898297972480397E-2</v>
+          </cell>
+          <cell r="D3">
+            <v>4.4819616874393703E-2</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F3">
+            <v>0.32133180762351898</v>
+          </cell>
+          <cell r="G3">
+            <v>0.31525312652543203</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>0.43764691136183398</v>
+          </cell>
+          <cell r="C4">
+            <v>5.8002833814070398E-2</v>
+          </cell>
+          <cell r="D4">
+            <v>3.8484518965982199E-2</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F4">
+            <v>0.39916239239585199</v>
+          </cell>
+          <cell r="G4">
+            <v>0.37964407754776403</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>0.240822006275732</v>
+          </cell>
+          <cell r="C5">
+            <v>8.0843615963238996E-2</v>
+          </cell>
+          <cell r="D5">
+            <v>5.8625976200443998E-2</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="F5">
+            <v>0.18219603007528801</v>
+          </cell>
+          <cell r="G5">
+            <v>0.159978390312493</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>0.33710878706808201</v>
+          </cell>
+          <cell r="C6">
+            <v>3.2691141180019999E-2</v>
+          </cell>
+          <cell r="D6">
+            <v>2.1591539764084101E-2</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>NPK+Disturbance</v>
+          </cell>
+          <cell r="F6">
+            <v>0.31551724730399799</v>
+          </cell>
+          <cell r="G6">
+            <v>0.30441764588806203</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>0.30075253094488302</v>
+          </cell>
+          <cell r="C7">
+            <v>1.8695781638428201E-2</v>
+          </cell>
+          <cell r="D7">
+            <v>3.4999095690040698E-3</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>NPK+Disturbance</v>
+          </cell>
+          <cell r="F7">
+            <v>0.29725262137587899</v>
+          </cell>
+          <cell r="G7">
+            <v>0.28205674930645502</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>0.330898877228539</v>
+          </cell>
+          <cell r="C8">
+            <v>5.8647519230751698E-2</v>
+          </cell>
+          <cell r="D8">
+            <v>4.79006409480199E-2</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="F8">
+            <v>0.28299823628052001</v>
+          </cell>
+          <cell r="G8">
+            <v>0.27225135799778799</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>0.32132281156119302</v>
+          </cell>
+          <cell r="C9">
+            <v>7.0906395937209807E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>4.2988133214164198E-2</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Disturbance</v>
+          </cell>
+          <cell r="F9">
+            <v>0.27833467834702902</v>
+          </cell>
+          <cell r="G9">
+            <v>0.25041641562398398</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>0.262774099809303</v>
+          </cell>
+          <cell r="C10">
+            <v>0.118934055956104</v>
+          </cell>
+          <cell r="D10">
+            <v>9.45786829732327E-2</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F10">
+            <v>0.16819541683607001</v>
+          </cell>
+          <cell r="G10">
+            <v>0.14384004385319801</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>0.27417563499824399</v>
+          </cell>
+          <cell r="C11">
+            <v>0.14566520697121901</v>
+          </cell>
+          <cell r="D11">
+            <v>0.128535975419932</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F11">
+            <v>0.14563965957831199</v>
+          </cell>
+          <cell r="G11">
+            <v>0.128510428027025</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>0.31856513032253603</v>
+          </cell>
+          <cell r="C12">
+            <v>0.109784250307533</v>
+          </cell>
+          <cell r="D12">
+            <v>7.7230704874908199E-2</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F12">
+            <v>0.24133442544762801</v>
+          </cell>
+          <cell r="G12">
+            <v>0.208780880015002</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>0.34796690194435298</v>
+          </cell>
+          <cell r="C13">
+            <v>0.14485542280914701</v>
+          </cell>
+          <cell r="D13">
+            <v>9.7317412754511196E-2</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Disturbance</v>
+          </cell>
+          <cell r="F13">
+            <v>0.25064948918984198</v>
+          </cell>
+          <cell r="G13">
+            <v>0.203111479135205</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>0.33118310681052698</v>
+          </cell>
+          <cell r="C14">
+            <v>2.0569020333277298E-2</v>
+          </cell>
+          <cell r="D14">
+            <v>1.8048701590777799E-2</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>NPK+Disturbance</v>
+          </cell>
+          <cell r="F14">
+            <v>0.313134405219749</v>
+          </cell>
+          <cell r="G14">
+            <v>0.31061408647724897</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>0.29401625620475702</v>
+          </cell>
+          <cell r="C15">
+            <v>0.10614199522363101</v>
+          </cell>
+          <cell r="D15">
+            <v>7.9340107975794799E-2</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F15">
+            <v>0.214676148228962</v>
+          </cell>
+          <cell r="G15">
+            <v>0.187874260981126</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>0.31180886397003099</v>
+          </cell>
+          <cell r="C16">
+            <v>3.3567326917379403E-2</v>
+          </cell>
+          <cell r="D16">
+            <v>2.5567820191736899E-2</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="F16">
+            <v>0.28624104377829401</v>
+          </cell>
+          <cell r="G16">
+            <v>0.27824153705265198</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>0.31374289754961898</v>
+          </cell>
+          <cell r="C17">
+            <v>3.6489580439268803E-2</v>
+          </cell>
+          <cell r="D17">
+            <v>2.6425417954682701E-2</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="F17">
+            <v>0.28731747959493598</v>
+          </cell>
+          <cell r="G17">
+            <v>0.27725331711035001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>0.305192457366253</v>
+          </cell>
+          <cell r="C18">
+            <v>3.2987687170403001E-3</v>
+          </cell>
+          <cell r="D18">
+            <v>1.31374555317414E-3</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F18">
+            <v>0.30387871181307902</v>
+          </cell>
+          <cell r="G18">
+            <v>0.30189368864921301</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>0.34222577435333501</v>
+          </cell>
+          <cell r="C19">
+            <v>2.6670390501185502E-2</v>
+          </cell>
+          <cell r="D19">
+            <v>2.05555677510211E-2</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>NPK+Disturbance</v>
+          </cell>
+          <cell r="F19">
+            <v>0.32167020660231399</v>
+          </cell>
+          <cell r="G19">
+            <v>0.31555538385214998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>0.261171429116277</v>
+          </cell>
+          <cell r="C20">
+            <v>7.4624394873853805E-2</v>
+          </cell>
+          <cell r="D20">
+            <v>5.1865620428306003E-2</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F20">
+            <v>0.209305808687971</v>
+          </cell>
+          <cell r="G20">
+            <v>0.186547034242423</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>0.32509903604557</v>
+          </cell>
+          <cell r="C21">
+            <v>3.6241388791280298E-2</v>
+          </cell>
+          <cell r="D21">
+            <v>2.8322819977322E-2</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Disturbance</v>
+          </cell>
+          <cell r="F21">
+            <v>0.296776216068248</v>
+          </cell>
+          <cell r="G21">
+            <v>0.28885764725428997</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>0.32276654898734503</v>
+          </cell>
+          <cell r="C22">
+            <v>2.2256447104454E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>1.9227625051405101E-2</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>NPK+Disturbance</v>
+          </cell>
+          <cell r="F22">
+            <v>0.30353892393594001</v>
+          </cell>
+          <cell r="G22">
+            <v>0.30051010188289101</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>0.32558856423578197</v>
+          </cell>
+          <cell r="C23">
+            <v>6.0851786902748797E-2</v>
+          </cell>
+          <cell r="D23">
+            <v>4.64267034624785E-2</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="F23">
+            <v>0.27916186077330302</v>
+          </cell>
+          <cell r="G23">
+            <v>0.26473677733303302</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>0.33550528119947998</v>
+          </cell>
+          <cell r="C24">
+            <v>1.52883823845456E-2</v>
+          </cell>
+          <cell r="D24">
+            <v>1.47116902522181E-2</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>Disturbance</v>
+          </cell>
+          <cell r="F24">
+            <v>0.32079359094726201</v>
+          </cell>
+          <cell r="G24">
+            <v>0.32021689881493398</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>0.34781158280152003</v>
+          </cell>
+          <cell r="C25">
+            <v>6.1387575616899899E-2</v>
+          </cell>
+          <cell r="D25">
+            <v>4.0180565632315E-2</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F25">
+            <v>0.30763101716920499</v>
+          </cell>
+          <cell r="G25">
+            <v>0.28642400718462002</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>0.26077084466558598</v>
+          </cell>
+          <cell r="C26">
+            <v>4.6800602404666498E-2</v>
+          </cell>
+          <cell r="D26">
+            <v>3.2022908321982603E-2</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>NPK</v>
+          </cell>
+          <cell r="F26">
+            <v>0.22874793634360299</v>
+          </cell>
+          <cell r="G26">
+            <v>0.21397024226091901</v>
           </cell>
         </row>
       </sheetData>
@@ -57056,21 +57696,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -57105,61 +57746,76 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -57194,75 +57850,92 @@
         <v>11</v>
       </c>
       <c r="L2">
+        <v>0.31524830263934001</v>
+      </c>
+      <c r="M2">
+        <v>0.108033100476431</v>
+      </c>
+      <c r="N2" s="2">
+        <v>7.8987349999999998E-2</v>
+      </c>
+      <c r="O2">
+        <f>VLOOKUP(A2,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.236260951568636</v>
+      </c>
+      <c r="P2">
+        <f>VLOOKUP(A2,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.20721520216290801</v>
+      </c>
+      <c r="Q2">
         <v>14.925269999999999</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>3.072238</v>
       </c>
-      <c r="N2">
+      <c r="S2">
         <v>8.1039340000000006</v>
       </c>
-      <c r="O2">
+      <c r="T2">
         <v>73.898555000000002</v>
       </c>
-      <c r="P2">
+      <c r="U2">
         <f>VLOOKUP(A2,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.86717932559951894</v>
       </c>
-      <c r="Q2">
+      <c r="V2">
         <f>VLOOKUP(A2,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.5409137482896134E-4</v>
       </c>
-      <c r="R2">
+      <c r="W2">
         <f>VLOOKUP(A2,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.7150000000000001</v>
       </c>
-      <c r="S2">
+      <c r="X2">
         <f>VLOOKUP(A2,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="T2">
+      <c r="Y2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.141807370433984</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.16355239271139699</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.19205636635086501</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.23082019381416</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.286166015399896</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.37069509890242902</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.51335854624975297</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.79740746557668996</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.5912211498050099</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f>VLOOKUP(A2,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>91.092874206713205</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -57297,75 +57970,92 @@
         <v>12</v>
       </c>
       <c r="L3">
+        <v>0.36615142449791299</v>
+      </c>
+      <c r="M3">
+        <v>5.0898297972480397E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.4819619999999998E-2</v>
+      </c>
+      <c r="O3">
+        <f>VLOOKUP(A3,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.32133180762351898</v>
+      </c>
+      <c r="P3">
+        <f>VLOOKUP(A3,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.31525312652543203</v>
+      </c>
+      <c r="Q3">
         <v>1.6743269999999999</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>1.354284</v>
       </c>
-      <c r="N3">
+      <c r="S3">
         <v>10.739989</v>
       </c>
-      <c r="O3">
+      <c r="T3">
         <v>86.231399999999994</v>
       </c>
-      <c r="P3">
+      <c r="U3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.97151713820525598</v>
       </c>
-      <c r="Q3">
+      <c r="V3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>5.7232232000309897E-5</v>
       </c>
-      <c r="R3">
+      <c r="W3">
         <f>VLOOKUP(A3,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.4650000000000001</v>
       </c>
-      <c r="S3">
+      <c r="X3">
         <f>VLOOKUP(A3,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.1502061626997899E-3</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>3.7875003622411399E-3</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>4.6611228723923096E-3</v>
       </c>
-      <c r="W3">
+      <c r="AB3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>5.9114950239483096E-3</v>
       </c>
-      <c r="X3">
+      <c r="AC3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>7.8063179945933002E-3</v>
       </c>
-      <c r="Y3">
+      <c r="AD3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>1.09148487442379E-2</v>
       </c>
-      <c r="Z3">
+      <c r="AE3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.66544524766323E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AF3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>2.9565209949979899E-2</v>
       </c>
-      <c r="AB3">
+      <c r="AG3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>7.3544190722846597E-2</v>
       </c>
-      <c r="AC3">
+      <c r="AH3">
         <f>VLOOKUP(A3,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.597958528742197</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -57400,75 +58090,92 @@
         <v>12</v>
       </c>
       <c r="L4">
+        <v>0.43764691136183398</v>
+      </c>
+      <c r="M4">
+        <v>5.8002833814070398E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.8484520000000001E-2</v>
+      </c>
+      <c r="O4">
+        <f>VLOOKUP(A4,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.39916239239585199</v>
+      </c>
+      <c r="P4">
+        <f>VLOOKUP(A4,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.37964407754776403</v>
+      </c>
+      <c r="Q4">
         <v>4.9815950000000004</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>2.9657960000000001</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>12.675867</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>79.376741999999993</v>
       </c>
-      <c r="P4">
+      <c r="U4">
         <f>VLOOKUP(A4,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.6728240929208813</v>
       </c>
-      <c r="Q4">
+      <c r="V4">
         <f>VLOOKUP(A4,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>3.6904922013992748E-4</v>
       </c>
-      <c r="R4">
+      <c r="W4">
         <f>VLOOKUP(A4,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.82</v>
       </c>
-      <c r="S4">
+      <c r="X4">
         <f>VLOOKUP(A4,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14499999999999999</v>
       </c>
-      <c r="T4">
+      <c r="Y4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>5.2076709254315103E-3</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>6.4353098924804404E-3</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>8.1677648104572197E-3</v>
       </c>
-      <c r="W4">
+      <c r="AB4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.0730362361000501E-2</v>
       </c>
-      <c r="X4">
+      <c r="AC4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>1.47643999234786E-2</v>
       </c>
-      <c r="Y4">
+      <c r="AD4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>2.1687977545947701E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AE4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>3.5202673328581603E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AF4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>6.7901938079307195E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AG4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.19205763889691099</v>
       </c>
-      <c r="AC4">
+      <c r="AH4">
         <f>VLOOKUP(A4,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>95.183945562665201</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -57503,75 +58210,92 @@
         <v>13</v>
       </c>
       <c r="L5">
+        <v>0.240822006275732</v>
+      </c>
+      <c r="M5">
+        <v>8.0843615963238996E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.8625980000000001E-2</v>
+      </c>
+      <c r="O5">
+        <f>VLOOKUP(A5,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.18219603007528801</v>
+      </c>
+      <c r="P5">
+        <f>VLOOKUP(A5,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.159978390312493</v>
+      </c>
+      <c r="Q5">
         <v>12.08061</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>2.5264329999999999</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <v>6.6970890000000001</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>78.695864999999998</v>
       </c>
-      <c r="P5">
+      <c r="U5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.187864842792633</v>
       </c>
-      <c r="Q5">
+      <c r="V5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.3368217179545011E-4</v>
       </c>
-      <c r="R5">
+      <c r="W5">
         <f>VLOOKUP(A5,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="S5">
+      <c r="X5">
         <f>VLOOKUP(A5,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.1</v>
       </c>
-      <c r="T5">
+      <c r="Y5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.11221573878021</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.129529552189456</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.152244911065508</v>
       </c>
-      <c r="W5">
+      <c r="AB5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.183167440727246</v>
       </c>
-      <c r="X5">
+      <c r="AC5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.22736896596299899</v>
       </c>
-      <c r="Y5">
+      <c r="AD5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.29497107521065502</v>
       </c>
-      <c r="Z5">
+      <c r="AE5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.40926296430280101</v>
       </c>
-      <c r="AA5">
+      <c r="AF5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.63734699641897596</v>
       </c>
-      <c r="AB5">
+      <c r="AG5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.27704181932074</v>
       </c>
-      <c r="AC5">
+      <c r="AH5">
         <f>VLOOKUP(A5,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.976265992821993</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -57606,75 +58330,92 @@
         <v>14</v>
       </c>
       <c r="L6">
+        <v>0.33710878706808201</v>
+      </c>
+      <c r="M6">
+        <v>3.2691141180019999E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.1591539999999999E-2</v>
+      </c>
+      <c r="O6">
+        <f>VLOOKUP(A6,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.31551724730399799</v>
+      </c>
+      <c r="P6">
+        <f>VLOOKUP(A6,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.30441764588806203</v>
+      </c>
+      <c r="Q6">
         <v>2.7730739999999998</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>2.5496349999999999</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <v>16.277220100000001</v>
       </c>
-      <c r="O6">
+      <c r="T6">
         <v>78.404891000000006</v>
       </c>
-      <c r="P6">
+      <c r="U6">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.95589471239441282</v>
       </c>
-      <c r="Q6">
+      <c r="V6">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.0805050696610085E-4</v>
       </c>
-      <c r="R6">
+      <c r="W6">
         <f>VLOOKUP(A6,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="S6">
+      <c r="X6">
         <f>VLOOKUP(A6,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6">
+      <c r="Y6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.5165366585484799E-3</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>4.2426550611434199E-3</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>5.2426783405282104E-3</v>
       </c>
-      <c r="W6">
+      <c r="AB6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>6.6820511480664398E-3</v>
       </c>
-      <c r="X6">
+      <c r="AC6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>8.8787560466410901E-3</v>
       </c>
-      <c r="Y6">
+      <c r="AD6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>1.2516173697653E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AE6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.9320994927549701E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AF6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>3.4951190269258997E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AG6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>9.0552499653819493E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AH6">
         <f>VLOOKUP(A6,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.911515817552001</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -57709,75 +58450,92 @@
         <v>14</v>
       </c>
       <c r="L7">
+        <v>0.30075253094488302</v>
+      </c>
+      <c r="M7">
+        <v>1.8695781638428201E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.4999100000000002E-3</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP(A7,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.29725262137587899</v>
+      </c>
+      <c r="P7">
+        <f>VLOOKUP(A7,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.28205674930645502</v>
+      </c>
+      <c r="Q7">
         <v>3.5161950000000002</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <v>4.2507510000000002</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <v>21.414406</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>70.818647999999996</v>
       </c>
-      <c r="P7">
+      <c r="U7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.0882511562334738</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>5.0818274965792045E-5</v>
       </c>
-      <c r="R7">
+      <c r="W7">
         <f>VLOOKUP(A7,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.9450000000000001</v>
       </c>
-      <c r="S7">
+      <c r="X7">
         <f>VLOOKUP(A7,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.08</v>
       </c>
-      <c r="T7">
+      <c r="Y7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.8167858498131698E-4</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>8.5513351100431102E-4</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.1053804289765301E-3</v>
       </c>
-      <c r="W7">
+      <c r="AB7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.48572860463151E-3</v>
       </c>
-      <c r="X7">
+      <c r="AC7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.1054301632688999E-3</v>
       </c>
-      <c r="Y7">
+      <c r="AD7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.2184349074398798E-3</v>
       </c>
-      <c r="Z7">
+      <c r="AE7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.5339224752956303E-3</v>
       </c>
-      <c r="AA7">
+      <c r="AF7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>1.1719297564961701E-2</v>
       </c>
-      <c r="AB7">
+      <c r="AG7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>4.0184375193275799E-2</v>
       </c>
-      <c r="AC7">
+      <c r="AH7">
         <f>VLOOKUP(A7,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>99.922835993187803</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -57812,75 +58570,92 @@
         <v>13</v>
       </c>
       <c r="L8">
+        <v>0.330898877228539</v>
+      </c>
+      <c r="M8">
+        <v>5.8647519230751698E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4.7900640000000001E-2</v>
+      </c>
+      <c r="O8">
+        <f>VLOOKUP(A8,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.28299823628052001</v>
+      </c>
+      <c r="P8">
+        <f>VLOOKUP(A8,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.27225135799778799</v>
+      </c>
+      <c r="Q8">
         <v>2.558945</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <v>1.8691180000000001</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <v>11.570978</v>
       </c>
-      <c r="O8">
+      <c r="T8">
         <v>83.000957999999997</v>
       </c>
-      <c r="P8">
+      <c r="U8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.95091945526086863</v>
       </c>
-      <c r="Q8">
+      <c r="V8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.1865820513857295E-3</v>
       </c>
-      <c r="R8">
+      <c r="W8">
         <f>VLOOKUP(A8,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.27</v>
       </c>
-      <c r="S8">
+      <c r="X8">
         <f>VLOOKUP(A8,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="T8">
+      <c r="Y8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.40279828296046E-2</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.6578966997634999E-2</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>2.0011667980133901E-2</v>
       </c>
-      <c r="W8">
+      <c r="AB8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.4821614647006801E-2</v>
       </c>
-      <c r="X8">
+      <c r="AC8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>3.1932282587382503E-2</v>
       </c>
-      <c r="Y8">
+      <c r="AD8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>4.3254729009570801E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AE8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>6.3388309642918E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AF8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.106403909039902</v>
       </c>
-      <c r="AB8">
+      <c r="AG8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.24100217693460199</v>
       </c>
-      <c r="AC8">
+      <c r="AH8">
         <f>VLOOKUP(A8,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.830494325688093</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -57915,75 +58690,92 @@
         <v>11</v>
       </c>
       <c r="L9">
+        <v>0.32132281156119302</v>
+      </c>
+      <c r="M9">
+        <v>7.0906395937209807E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4.2988129999999999E-2</v>
+      </c>
+      <c r="O9">
+        <f>VLOOKUP(A9,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.27833467834702902</v>
+      </c>
+      <c r="P9">
+        <f>VLOOKUP(A9,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.25041641562398398</v>
+      </c>
+      <c r="Q9">
         <v>12.21242</v>
       </c>
-      <c r="M9">
+      <c r="R9">
         <v>3.5529449999999998</v>
       </c>
-      <c r="N9">
+      <c r="S9">
         <v>10.596062</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>73.638574000000006</v>
       </c>
-      <c r="P9">
+      <c r="U9">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.83825484628039704</v>
       </c>
-      <c r="Q9">
+      <c r="V9">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.2054144572533087E-4</v>
       </c>
-      <c r="R9">
+      <c r="W9">
         <f>VLOOKUP(A9,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>3.915</v>
       </c>
-      <c r="S9">
+      <c r="X9">
         <f>VLOOKUP(A9,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.185</v>
       </c>
-      <c r="T9">
+      <c r="Y9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.7697948928484006E-2</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.9534472811177995E-2</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>9.5360016463020697E-2</v>
       </c>
-      <c r="W9">
+      <c r="AB9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.117372277376083</v>
       </c>
-      <c r="X9">
+      <c r="AC9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.14963431367185301</v>
       </c>
-      <c r="Y9">
+      <c r="AD9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.20047351045214601</v>
       </c>
-      <c r="Z9">
+      <c r="AE9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.28968816318341201</v>
       </c>
-      <c r="AA9">
+      <c r="AF9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.47683117704579198</v>
       </c>
-      <c r="AB9">
+      <c r="AG9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.0442777162600601</v>
       </c>
-      <c r="AC9">
+      <c r="AH9">
         <f>VLOOKUP(A9,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.063536985617901</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -58018,75 +58810,92 @@
         <v>12</v>
       </c>
       <c r="L10">
+        <v>0.262774099809303</v>
+      </c>
+      <c r="M10">
+        <v>0.118934055956104</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9.4578679999999998E-2</v>
+      </c>
+      <c r="O10">
+        <f>VLOOKUP(A10,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.16819541683607001</v>
+      </c>
+      <c r="P10">
+        <f>VLOOKUP(A10,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.14384004385319801</v>
+      </c>
+      <c r="Q10">
         <v>14.608280000000001</v>
       </c>
-      <c r="M10">
+      <c r="R10">
         <v>2.5309910000000002</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <v>6.2816260000000002</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>76.579103000000003</v>
       </c>
-      <c r="P10">
+      <c r="U10">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.89899008558417393</v>
       </c>
-      <c r="Q10">
+      <c r="V10">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.6969900745081776E-4</v>
       </c>
-      <c r="R10">
+      <c r="W10">
         <f>VLOOKUP(A10,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.5249999999999999</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <f>VLOOKUP(A10,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.17383156884506901</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.19881446453708099</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.23127096142543099</v>
       </c>
-      <c r="W10">
+      <c r="AB10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.27496250646012399</v>
       </c>
-      <c r="X10">
+      <c r="AC10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.336610347425846</v>
       </c>
-      <c r="Y10">
+      <c r="AD10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.42944428773891202</v>
       </c>
-      <c r="Z10">
+      <c r="AE10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.58339583120943705</v>
       </c>
-      <c r="AA10">
+      <c r="AF10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.88281913260123601</v>
       </c>
-      <c r="AB10">
+      <c r="AG10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.68969477839389</v>
       </c>
-      <c r="AC10">
+      <c r="AH10">
         <f>VLOOKUP(A10,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>87.418809820744897</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -58121,75 +58930,92 @@
         <v>12</v>
       </c>
       <c r="L11">
+        <v>0.27417563499824399</v>
+      </c>
+      <c r="M11">
+        <v>0.14566520697121901</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.12853597999999999</v>
+      </c>
+      <c r="O11">
+        <f>VLOOKUP(A11,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.14563965957831199</v>
+      </c>
+      <c r="P11">
+        <f>VLOOKUP(A11,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.128510428027025</v>
+      </c>
+      <c r="Q11">
         <v>21.061810000000001</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <v>1.083691</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <v>3.311607</v>
       </c>
-      <c r="O11">
+      <c r="T11">
         <v>74.542895000000001</v>
       </c>
-      <c r="P11">
+      <c r="U11">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.8499973214666674</v>
       </c>
-      <c r="Q11">
+      <c r="V11">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.3978331682888331E-4</v>
       </c>
-      <c r="R11">
+      <c r="W11">
         <f>VLOOKUP(A11,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.4550000000000001</v>
       </c>
-      <c r="S11">
+      <c r="X11">
         <f>VLOOKUP(A11,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.115</v>
       </c>
-      <c r="T11">
+      <c r="Y11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.3839014945366903E-2</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>4.3169249909903201E-2</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>5.70049310821239E-2</v>
       </c>
-      <c r="W11">
+      <c r="AB11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>7.8730116281196902E-2</v>
       </c>
-      <c r="X11">
+      <c r="AC11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.115535512152735</v>
       </c>
-      <c r="Y11">
+      <c r="AD11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.18483606719779599</v>
       </c>
-      <c r="Z11">
+      <c r="AE11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.33755537128256602</v>
       </c>
-      <c r="AA11">
+      <c r="AF11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.77443826491252699</v>
       </c>
-      <c r="AB11">
+      <c r="AG11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.8765971505722199</v>
       </c>
-      <c r="AC11">
+      <c r="AH11">
         <f>VLOOKUP(A11,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.398823575661197</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -58224,75 +59050,92 @@
         <v>12</v>
       </c>
       <c r="L12">
+        <v>0.31856513032253603</v>
+      </c>
+      <c r="M12">
+        <v>0.109784250307533</v>
+      </c>
+      <c r="N12" s="2">
+        <v>7.7230699999999999E-2</v>
+      </c>
+      <c r="O12">
+        <f>VLOOKUP(A12,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.24133442544762801</v>
+      </c>
+      <c r="P12">
+        <f>VLOOKUP(A12,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.208780880015002</v>
+      </c>
+      <c r="Q12">
         <v>16.117719999999998</v>
       </c>
-      <c r="M12">
+      <c r="R12">
         <v>3.5598169999999998</v>
       </c>
-      <c r="N12">
+      <c r="S12">
         <v>9.4487719999999999</v>
       </c>
-      <c r="O12">
+      <c r="T12">
         <v>70.873688999999999</v>
       </c>
-      <c r="P12">
+      <c r="U12">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.61544384652746742</v>
       </c>
-      <c r="Q12">
+      <c r="V12">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>9.5321269159136279E-4</v>
       </c>
-      <c r="R12">
+      <c r="W12">
         <f>VLOOKUP(A12,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.7649999999999999</v>
       </c>
-      <c r="S12">
+      <c r="X12">
         <f>VLOOKUP(A12,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.09</v>
       </c>
-      <c r="T12">
+      <c r="Y12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.13748854047661099</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.15918708186577701</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.187748361755808</v>
       </c>
-      <c r="W12">
+      <c r="AB12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.226774104627843</v>
       </c>
-      <c r="X12">
+      <c r="AC12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.28280060445261002</v>
       </c>
-      <c r="Y12">
+      <c r="AD12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.36893230468488603</v>
       </c>
-      <c r="Z12">
+      <c r="AE12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.51549298323512704</v>
       </c>
-      <c r="AA12">
+      <c r="AF12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.81050584440912998</v>
       </c>
-      <c r="AB12">
+      <c r="AG12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.6491164121549799</v>
       </c>
-      <c r="AC12">
+      <c r="AH12">
         <f>VLOOKUP(A12,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>91.576460951556598</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -58327,75 +59170,92 @@
         <v>11</v>
       </c>
       <c r="L13">
+        <v>0.34796690194435298</v>
+      </c>
+      <c r="M13">
+        <v>0.14485542280914701</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9.7317409999999993E-2</v>
+      </c>
+      <c r="O13">
+        <f>VLOOKUP(A13,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.25064948918984198</v>
+      </c>
+      <c r="P13">
+        <f>VLOOKUP(A13,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.203111479135205</v>
+      </c>
+      <c r="Q13">
         <v>21.580850000000002</v>
       </c>
-      <c r="M13">
+      <c r="R13">
         <v>4.8726430000000001</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>11.132707</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>62.413803000000001</v>
       </c>
-      <c r="P13">
+      <c r="U13">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.94783483530857604</v>
       </c>
-      <c r="Q13">
+      <c r="V13">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>3.2217799565691498E-4</v>
       </c>
-      <c r="R13">
+      <c r="W13">
         <f>VLOOKUP(A13,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.52</v>
       </c>
-      <c r="S13">
+      <c r="X13">
         <f>VLOOKUP(A13,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.16</v>
       </c>
-      <c r="T13">
+      <c r="Y13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.15897038618097001</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.18510926204258901</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.21972527475880299</v>
       </c>
-      <c r="W13">
+      <c r="AB13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.26735301483504897</v>
       </c>
-      <c r="X13">
+      <c r="AC13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.33628106981672501</v>
       </c>
-      <c r="Y13">
+      <c r="AD13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.44326901072532399</v>
       </c>
-      <c r="Z13">
+      <c r="AE13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.627504274632812</v>
       </c>
-      <c r="AA13">
+      <c r="AF13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>1.0042936385119201</v>
       </c>
-      <c r="AB13">
+      <c r="AG13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.1019338259586702</v>
       </c>
-      <c r="AC13">
+      <c r="AH13">
         <f>VLOOKUP(A13,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>90.599717180012604</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -58430,75 +59290,92 @@
         <v>14</v>
       </c>
       <c r="L14">
+        <v>0.33118310681052698</v>
+      </c>
+      <c r="M14">
+        <v>2.0569020333277298E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.8048700000000001E-2</v>
+      </c>
+      <c r="O14">
+        <f>VLOOKUP(A14,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.313134405219749</v>
+      </c>
+      <c r="P14">
+        <f>VLOOKUP(A14,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.31061408647724897</v>
+      </c>
+      <c r="Q14">
         <v>0.68059309999999995</v>
       </c>
-      <c r="M14">
+      <c r="R14">
         <v>0.85037149999999995</v>
       </c>
-      <c r="N14">
+      <c r="S14">
         <v>23.6097535</v>
       </c>
-      <c r="O14">
+      <c r="T14">
         <v>74.859281899999999</v>
       </c>
-      <c r="P14">
+      <c r="U14">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.8361333066459028</v>
       </c>
-      <c r="Q14">
+      <c r="V14">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>7.7263513200417921E-4</v>
       </c>
-      <c r="R14">
+      <c r="W14">
         <f>VLOOKUP(A14,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.7749999999999999</v>
       </c>
-      <c r="S14">
+      <c r="X14">
         <f>VLOOKUP(A14,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="T14">
+      <c r="Y14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>5.7135631684232405E-4</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.08295254972298E-4</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>9.0220378467106496E-4</v>
       </c>
-      <c r="W14">
+      <c r="AB14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.1901424880871199E-3</v>
       </c>
-      <c r="X14">
+      <c r="AC14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>1.6454640211418E-3</v>
       </c>
-      <c r="Y14">
+      <c r="AD14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>2.43115565979509E-3</v>
       </c>
-      <c r="Z14">
+      <c r="AE14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>3.9751851105837002E-3</v>
       </c>
-      <c r="AA14">
+      <c r="AF14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>7.7450794692468699E-3</v>
       </c>
-      <c r="AB14">
+      <c r="AG14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.2267790909862601E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AH14">
         <f>VLOOKUP(A14,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.877593707014299</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -58533,75 +59410,92 @@
         <v>12</v>
       </c>
       <c r="L15">
+        <v>0.29401625620475702</v>
+      </c>
+      <c r="M15">
+        <v>0.10614199522363101</v>
+      </c>
+      <c r="N15" s="2">
+        <v>7.9340110000000005E-2</v>
+      </c>
+      <c r="O15">
+        <f>VLOOKUP(A15,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.214676148228962</v>
+      </c>
+      <c r="P15">
+        <f>VLOOKUP(A15,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.187874260981126</v>
+      </c>
+      <c r="Q15">
         <v>13.57555</v>
       </c>
-      <c r="M15">
+      <c r="R15">
         <v>2.6844899999999998</v>
       </c>
-      <c r="N15">
+      <c r="S15">
         <v>7.0098440000000002</v>
       </c>
-      <c r="O15">
+      <c r="T15">
         <v>76.730114</v>
       </c>
-      <c r="P15">
+      <c r="U15">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.2471199381653677</v>
       </c>
-      <c r="Q15">
+      <c r="V15">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.5853180662208829E-4</v>
       </c>
-      <c r="R15">
+      <c r="W15">
         <f>VLOOKUP(A15,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.26</v>
       </c>
-      <c r="S15">
+      <c r="X15">
         <f>VLOOKUP(A15,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>5.5E-2</v>
       </c>
-      <c r="T15">
+      <c r="Y15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.13705246433954901</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.15770451538321101</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.18470970013285001</v>
       </c>
-      <c r="W15">
+      <c r="AB15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.22133334652484499</v>
       </c>
-      <c r="X15">
+      <c r="AC15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.273455397155701</v>
       </c>
-      <c r="Y15">
+      <c r="AD15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.35275629211818199</v>
       </c>
-      <c r="Z15">
+      <c r="AE15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.48596137735810402</v>
       </c>
-      <c r="AA15">
+      <c r="AF15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.74951082134637903</v>
       </c>
-      <c r="AB15">
+      <c r="AG15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.47892609437228</v>
       </c>
-      <c r="AC15">
+      <c r="AH15">
         <f>VLOOKUP(A15,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>91.178238603472806</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -58636,75 +59530,92 @@
         <v>13</v>
       </c>
       <c r="L16">
+        <v>0.31180886397003099</v>
+      </c>
+      <c r="M16">
+        <v>3.3567326917379403E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2.5567820000000002E-2</v>
+      </c>
+      <c r="O16">
+        <f>VLOOKUP(A16,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.28624104377829401</v>
+      </c>
+      <c r="P16">
+        <f>VLOOKUP(A16,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.27824153705265198</v>
+      </c>
+      <c r="Q16">
         <v>3.3820869999999998</v>
       </c>
-      <c r="M16">
+      <c r="R16">
         <v>1.427799</v>
       </c>
-      <c r="N16">
+      <c r="S16">
         <v>21.895657</v>
       </c>
-      <c r="O16">
+      <c r="T16">
         <v>73.294455999999997</v>
       </c>
-      <c r="P16">
+      <c r="U16">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.84664232855630439</v>
       </c>
-      <c r="Q16">
+      <c r="V16">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>5.9551124158942876E-4</v>
       </c>
-      <c r="R16">
+      <c r="W16">
         <f>VLOOKUP(A16,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.925</v>
       </c>
-      <c r="S16">
+      <c r="X16">
         <f>VLOOKUP(A16,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.12</v>
       </c>
-      <c r="T16">
+      <c r="Y16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.5176916129657299E-2</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.7947731256122101E-2</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>2.16782348703542E-2</v>
       </c>
-      <c r="W16">
+      <c r="AB16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.6908386230738001E-2</v>
       </c>
-      <c r="X16">
+      <c r="AC16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>3.4644650229382998E-2</v>
       </c>
-      <c r="Y16">
+      <c r="AD16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>4.6969858766144797E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AE16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>6.8894897539750505E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AF16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.115727853735346</v>
       </c>
-      <c r="AB16">
+      <c r="AG16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.261792232901427</v>
       </c>
-      <c r="AC16">
+      <c r="AH16">
         <f>VLOOKUP(A16,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.067677393319698</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -58739,75 +59650,92 @@
         <v>13</v>
       </c>
       <c r="L17">
+        <v>0.31374289754961898</v>
+      </c>
+      <c r="M17">
+        <v>3.6489580439268803E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.6425420000000002E-2</v>
+      </c>
+      <c r="O17">
+        <f>VLOOKUP(A17,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.28731747959493598</v>
+      </c>
+      <c r="P17">
+        <f>VLOOKUP(A17,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.27725331711035001</v>
+      </c>
+      <c r="Q17">
         <v>3.3059850000000002</v>
       </c>
-      <c r="M17">
+      <c r="R17">
         <v>1.9138850000000001</v>
       </c>
-      <c r="N17">
+      <c r="S17">
         <v>15.906914</v>
       </c>
-      <c r="O17">
+      <c r="T17">
         <v>78.873215999999999</v>
       </c>
-      <c r="P17">
+      <c r="U17">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.83337037130795677</v>
       </c>
-      <c r="Q17">
+      <c r="V17">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.4604086786285938E-4</v>
       </c>
-      <c r="R17">
+      <c r="W17">
         <f>VLOOKUP(A17,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>3.2450000000000001</v>
       </c>
-      <c r="S17">
+      <c r="X17">
         <f>VLOOKUP(A17,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="T17">
+      <c r="Y17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.3355312044737E-2</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.5793239137691501E-2</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.9075527662028802E-2</v>
       </c>
-      <c r="W17">
+      <c r="AB17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.36772679312445E-2</v>
       </c>
-      <c r="X17">
+      <c r="AC17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>3.0484063286729202E-2</v>
       </c>
-      <c r="Y17">
+      <c r="AD17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>4.1328829913112097E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AE17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>6.06221863613573E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AF17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.10184555381051601</v>
       </c>
-      <c r="AB17">
+      <c r="AG17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.230578067127541</v>
       </c>
-      <c r="AC17">
+      <c r="AH17">
         <f>VLOOKUP(A17,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.591324075290501</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -58842,75 +59770,92 @@
         <v>12</v>
       </c>
       <c r="L18">
+        <v>0.305192457366253</v>
+      </c>
+      <c r="M18">
+        <v>3.2987687170403001E-3</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.31375E-3</v>
+      </c>
+      <c r="O18">
+        <f>VLOOKUP(A18,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.30387871181307902</v>
+      </c>
+      <c r="P18">
+        <f>VLOOKUP(A18,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.30189368864921301</v>
+      </c>
+      <c r="Q18">
         <v>0.53226969999999996</v>
       </c>
-      <c r="M18">
+      <c r="R18">
         <v>0.30373359999999999</v>
       </c>
-      <c r="N18">
+      <c r="S18">
         <v>2.8565548999999999</v>
       </c>
-      <c r="O18">
+      <c r="T18">
         <v>96.307441800000007</v>
       </c>
-      <c r="P18">
+      <c r="U18">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.78883037351633645</v>
       </c>
-      <c r="Q18">
+      <c r="V18">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>3.157640386223982E-4</v>
       </c>
-      <c r="R18">
+      <c r="W18">
         <f>VLOOKUP(A18,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.62</v>
       </c>
-      <c r="S18">
+      <c r="X18">
         <f>VLOOKUP(A18,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="T18">
+      <c r="Y18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>7.5546809234386197E-4</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>9.2529939786026099E-4</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.16269807310897E-3</v>
       </c>
-      <c r="W18">
+      <c r="AB18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.5100670802742501E-3</v>
       </c>
-      <c r="X18">
+      <c r="AC18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.0500508401982199E-3</v>
       </c>
-      <c r="Y18">
+      <c r="AD18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>2.9629631371322399E-3</v>
       </c>
-      <c r="Z18">
+      <c r="AE18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>4.7117449203162099E-3</v>
       </c>
-      <c r="AA18">
+      <c r="AF18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>8.8373119224370508E-3</v>
       </c>
-      <c r="AB18">
+      <c r="AG18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.3885342372072901E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AH18">
         <f>VLOOKUP(A18,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>99.933616941955194</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -58945,75 +59890,92 @@
         <v>14</v>
       </c>
       <c r="L19">
+        <v>0.34222577435333501</v>
+      </c>
+      <c r="M19">
+        <v>2.6670390501185502E-2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.0555569999999999E-2</v>
+      </c>
+      <c r="O19">
+        <f>VLOOKUP(A19,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.32167020660231399</v>
+      </c>
+      <c r="P19">
+        <f>VLOOKUP(A19,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.31555538385214998</v>
+      </c>
+      <c r="Q19">
         <v>1.8880729999999999</v>
       </c>
-      <c r="M19">
+      <c r="R19">
         <v>1.4161170000000001</v>
       </c>
-      <c r="N19">
+      <c r="S19">
         <v>11.602268</v>
       </c>
-      <c r="O19">
+      <c r="T19">
         <v>85.093541999999999</v>
       </c>
-      <c r="P19">
+      <c r="U19">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.85705267420463671</v>
       </c>
-      <c r="Q19">
+      <c r="V19">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.2036087641606694E-4</v>
       </c>
-      <c r="R19">
+      <c r="W19">
         <f>VLOOKUP(A19,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="S19">
+      <c r="X19">
         <f>VLOOKUP(A19,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.1</v>
       </c>
-      <c r="T19">
+      <c r="Y19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.3425432024445801E-3</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>4.0440843892713798E-3</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>5.0120512404476496E-3</v>
       </c>
-      <c r="W19">
+      <c r="AB19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>6.4076254091876301E-3</v>
       </c>
-      <c r="X19">
+      <c r="AC19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>8.5402398017392894E-3</v>
       </c>
-      <c r="Y19">
+      <c r="AD19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>1.20731508778391E-2</v>
       </c>
-      <c r="Z19">
+      <c r="AE19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.8673045272141801E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AF19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>3.3736943651188303E-2</v>
       </c>
-      <c r="AB19">
+      <c r="AG19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>8.6032116114596796E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AH19">
         <f>VLOOKUP(A19,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.579927070183899</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -59048,75 +60010,92 @@
         <v>12</v>
       </c>
       <c r="L20">
+        <v>0.261171429116277</v>
+      </c>
+      <c r="M20">
+        <v>7.4624394873853805E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5.1865620000000001E-2</v>
+      </c>
+      <c r="O20">
+        <f>VLOOKUP(A20,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.209305808687971</v>
+      </c>
+      <c r="P20">
+        <f>VLOOKUP(A20,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.186547034242423</v>
+      </c>
+      <c r="Q20">
         <v>10.93768</v>
       </c>
-      <c r="M20">
+      <c r="R20">
         <v>2.4858929999999999</v>
       </c>
-      <c r="N20">
+      <c r="S20">
         <v>6.814273</v>
       </c>
-      <c r="O20">
+      <c r="T20">
         <v>79.762153999999995</v>
       </c>
-      <c r="P20">
+      <c r="U20">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.75388664221097512</v>
       </c>
-      <c r="Q20">
+      <c r="V20">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.8304446613892086E-4</v>
       </c>
-      <c r="R20">
+      <c r="W20">
         <f>VLOOKUP(A20,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.5249999999999999</v>
       </c>
-      <c r="S20">
+      <c r="X20">
         <f>VLOOKUP(A20,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.11</v>
       </c>
-      <c r="T20">
+      <c r="Y20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>9.0253602978938294E-2</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.10461991964723701</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.123553493160413</v>
       </c>
-      <c r="W20">
+      <c r="AB20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.149460672972627</v>
       </c>
-      <c r="X20">
+      <c r="AC20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.186714780007284</v>
       </c>
-      <c r="Y20">
+      <c r="AD20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.244098867464007</v>
       </c>
-      <c r="Z20">
+      <c r="AE20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.34197977330037999</v>
       </c>
-      <c r="AA20">
+      <c r="AF20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.539640574392382</v>
       </c>
-      <c r="AB20">
+      <c r="AG20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.1043236627764099</v>
       </c>
-      <c r="AC20">
+      <c r="AH20">
         <f>VLOOKUP(A20,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>94.6812853416926</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -59151,75 +60130,92 @@
         <v>11</v>
       </c>
       <c r="L21">
+        <v>0.32509903604557</v>
+      </c>
+      <c r="M21">
+        <v>3.6241388791280298E-2</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2.8322819999999999E-2</v>
+      </c>
+      <c r="O21">
+        <f>VLOOKUP(A21,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.296776216068248</v>
+      </c>
+      <c r="P21">
+        <f>VLOOKUP(A21,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.28885764725428997</v>
+      </c>
+      <c r="Q21">
         <v>2.9778850000000001</v>
       </c>
-      <c r="M21">
+      <c r="R21">
         <v>1.4271780000000001</v>
       </c>
-      <c r="N21">
+      <c r="S21">
         <v>19.027972999999999</v>
       </c>
-      <c r="O21">
+      <c r="T21">
         <v>76.566963999999999</v>
       </c>
-      <c r="P21">
+      <c r="U21">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.74305198863574407</v>
       </c>
-      <c r="Q21">
+      <c r="V21">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>6.0192519862394549E-5</v>
       </c>
-      <c r="R21">
+      <c r="W21">
         <f>VLOOKUP(A21,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.325</v>
       </c>
-      <c r="S21">
+      <c r="X21">
         <f>VLOOKUP(A21,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T21">
+      <c r="Y21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.2188939303682599E-2</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.4449635910677199E-2</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.7501328544916098E-2</v>
       </c>
-      <c r="W21">
+      <c r="AB21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.1792582897328602E-2</v>
       </c>
-      <c r="X21">
+      <c r="AC21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.8162115021140501E-2</v>
       </c>
-      <c r="Y21">
+      <c r="AD21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.8352020156756997E-2</v>
       </c>
-      <c r="Z21">
+      <c r="AE21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.6572469496668498E-2</v>
       </c>
-      <c r="AA21">
+      <c r="AF21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>9.5762365162019303E-2</v>
       </c>
-      <c r="AB21">
+      <c r="AG21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.219324582293523</v>
       </c>
-      <c r="AC21">
+      <c r="AH21">
         <f>VLOOKUP(A21,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>95.796225087475804</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -59254,75 +60250,92 @@
         <v>14</v>
       </c>
       <c r="L22">
+        <v>0.32276654898734503</v>
+      </c>
+      <c r="M22">
+        <v>2.2256447104454E-2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.9227629999999999E-2</v>
+      </c>
+      <c r="O22">
+        <f>VLOOKUP(A22,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.30353892393594001</v>
+      </c>
+      <c r="P22">
+        <f>VLOOKUP(A22,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.30051010188289101</v>
+      </c>
+      <c r="Q22">
         <v>0.83632879999999998</v>
       </c>
-      <c r="M22">
+      <c r="R22">
         <v>0.81684489999999998</v>
       </c>
-      <c r="N22">
+      <c r="S22">
         <v>17.658566400000002</v>
       </c>
-      <c r="O22">
+      <c r="T22">
         <v>80.688259900000006</v>
       </c>
-      <c r="P22">
+      <c r="U22">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.96969162735697012</v>
       </c>
-      <c r="Q22">
+      <c r="V22">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.2480130820919502E-4</v>
       </c>
-      <c r="R22">
+      <c r="W22">
         <f>VLOOKUP(A22,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.49</v>
       </c>
-      <c r="S22">
+      <c r="X22">
         <f>VLOOKUP(A22,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.1</v>
       </c>
-      <c r="T22">
+      <c r="Y22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>8.31139413774852E-4</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.02634354019641E-3</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.3016090129505499E-3</v>
       </c>
-      <c r="W22">
+      <c r="AB22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.7084231251833699E-3</v>
       </c>
-      <c r="X22">
+      <c r="AC22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.3481884471810402E-3</v>
       </c>
-      <c r="Y22">
+      <c r="AD22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.4448976665638802E-3</v>
       </c>
-      <c r="Z22">
+      <c r="AE22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.5824602250729499E-3</v>
       </c>
-      <c r="AA22">
+      <c r="AF22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>1.07440269151797E-2</v>
       </c>
-      <c r="AB22">
+      <c r="AG22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>3.0280803567081401E-2</v>
       </c>
-      <c r="AC22">
+      <c r="AH22">
         <f>VLOOKUP(A22,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.742233924923397</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -59357,75 +60370,92 @@
         <v>13</v>
       </c>
       <c r="L23">
+        <v>0.32558856423578197</v>
+      </c>
+      <c r="M23">
+        <v>6.0851786902748797E-2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4.6426700000000001E-2</v>
+      </c>
+      <c r="O23">
+        <f>VLOOKUP(A23,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.27916186077330302</v>
+      </c>
+      <c r="P23">
+        <f>VLOOKUP(A23,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.26473677733303302</v>
+      </c>
+      <c r="Q23">
         <v>4.0588090000000001</v>
       </c>
-      <c r="M23">
+      <c r="R23">
         <v>1.7217309999999999</v>
       </c>
-      <c r="N23">
+      <c r="S23">
         <v>6.230105</v>
       </c>
-      <c r="O23">
+      <c r="T23">
         <v>87.989355000000003</v>
       </c>
-      <c r="P23">
+      <c r="U23">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.67192663231735916</v>
       </c>
-      <c r="Q23">
+      <c r="V23">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.5366411486452334E-3</v>
       </c>
-      <c r="R23">
+      <c r="W23">
         <f>VLOOKUP(A23,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>4.6449999999999996</v>
       </c>
-      <c r="S23">
+      <c r="X23">
         <f>VLOOKUP(A23,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.255</v>
       </c>
-      <c r="T23">
+      <c r="Y23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.0508486249115601E-2</v>
       </c>
-      <c r="U23">
+      <c r="Z23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.2646887698315699E-2</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.5580459127076699E-2</v>
       </c>
-      <c r="W23">
+      <c r="AB23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.9782141225284301E-2</v>
       </c>
-      <c r="X23">
+      <c r="AC23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.61533508628609E-2</v>
       </c>
-      <c r="Y23">
+      <c r="AD23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.6609459696823901E-2</v>
       </c>
-      <c r="Z23">
+      <c r="AE23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.5910557694221E-2</v>
       </c>
-      <c r="AA23">
+      <c r="AF23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>9.9234309337794799E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AG23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.24531184716334201</v>
       </c>
-      <c r="AC23">
+      <c r="AH23">
         <f>VLOOKUP(A23,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>94.285077790968401</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -59460,75 +60490,92 @@
         <v>11</v>
       </c>
       <c r="L24">
+        <v>0.33550528119947998</v>
+      </c>
+      <c r="M24">
+        <v>1.52883823845456E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1.4711689999999999E-2</v>
+      </c>
+      <c r="O24">
+        <f>VLOOKUP(A24,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.32079359094726201</v>
+      </c>
+      <c r="P24">
+        <f>VLOOKUP(A24,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.32021689881493398</v>
+      </c>
+      <c r="Q24">
         <v>0.1338541</v>
       </c>
-      <c r="M24">
+      <c r="R24">
         <v>0.28892119999999999</v>
       </c>
-      <c r="N24">
+      <c r="S24">
         <v>12.825763</v>
       </c>
-      <c r="O24">
+      <c r="T24">
         <v>86.751461599999999</v>
       </c>
-      <c r="P24">
+      <c r="U24">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.95533423122585792</v>
       </c>
-      <c r="Q24">
+      <c r="V24">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>6.3202145855514272E-4</v>
       </c>
-      <c r="R24">
+      <c r="W24">
         <f>VLOOKUP(A24,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.31</v>
       </c>
-      <c r="S24">
+      <c r="X24">
         <f>VLOOKUP(A24,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T24">
+      <c r="Y24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.28780123751748E-5</v>
       </c>
-      <c r="U24">
+      <c r="Z24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.6873008708254701E-5</v>
       </c>
-      <c r="V24">
+      <c r="AA24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>2.2875531754584302E-5</v>
       </c>
-      <c r="W24">
+      <c r="AB24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>3.2411815299781502E-5</v>
       </c>
-      <c r="X24">
+      <c r="AC24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>4.8724581804299301E-5</v>
       </c>
-      <c r="Y24">
+      <c r="AD24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>7.9650861467390598E-5</v>
       </c>
-      <c r="Z24">
+      <c r="AE24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.4801992827141001E-4</v>
       </c>
-      <c r="AA24">
+      <c r="AF24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>3.4370678951580001E-4</v>
       </c>
-      <c r="AB24">
+      <c r="AG24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.3167500744424899E-3</v>
       </c>
-      <c r="AC24">
+      <c r="AH24">
         <f>VLOOKUP(A24,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>97.236528782175995</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -59563,75 +60610,92 @@
         <v>12</v>
       </c>
       <c r="L25">
+        <v>0.34781158280152003</v>
+      </c>
+      <c r="M25">
+        <v>6.1387575616899899E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>4.0180569999999999E-2</v>
+      </c>
+      <c r="O25">
+        <f>VLOOKUP(A25,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.30763101716920499</v>
+      </c>
+      <c r="P25">
+        <f>VLOOKUP(A25,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.28642400718462002</v>
+      </c>
+      <c r="Q25">
         <v>9.0558700000000005</v>
       </c>
-      <c r="M25">
+      <c r="R25">
         <v>2.6401599999999998</v>
       </c>
-      <c r="N25">
+      <c r="S25">
         <v>8.8977970000000006</v>
       </c>
-      <c r="O25">
+      <c r="T25">
         <v>79.406173999999993</v>
       </c>
-      <c r="P25">
+      <c r="U25">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.99551471175924777</v>
       </c>
-      <c r="Q25">
+      <c r="V25">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.0745844939368491E-3</v>
       </c>
-      <c r="R25">
+      <c r="W25">
         <f>VLOOKUP(A25,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.9750000000000001</v>
       </c>
-      <c r="S25">
+      <c r="X25">
         <f>VLOOKUP(A25,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="T25">
+      <c r="Y25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.5681517381885504E-2</v>
       </c>
-      <c r="U25">
+      <c r="Z25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.6133864057618295E-2</v>
       </c>
-      <c r="V25">
+      <c r="AA25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>8.9921618266087494E-2</v>
       </c>
-      <c r="W25">
+      <c r="AB25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.108811778300962</v>
       </c>
-      <c r="X25">
+      <c r="AC25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.136025583749153</v>
       </c>
-      <c r="Y25">
+      <c r="AD25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.17805965921559999</v>
       </c>
-      <c r="Z25">
+      <c r="AE25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.250071476066623</v>
       </c>
-      <c r="AA25">
+      <c r="AF25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.39661796287699203</v>
       </c>
-      <c r="AB25">
+      <c r="AG25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.82259894228782005</v>
       </c>
-      <c r="AC25">
+      <c r="AH25">
         <f>VLOOKUP(A25,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.035228612050005</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -59666,70 +60730,87 @@
         <v>12</v>
       </c>
       <c r="L26">
+        <v>0.26077084466558598</v>
+      </c>
+      <c r="M26">
+        <v>4.6800602404666498E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>3.2022910000000002E-2</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP(A26,[4]swrc_indices!$A$2:$G$26,6,TRUE)</f>
+        <v>0.22874793634360299</v>
+      </c>
+      <c r="P26">
+        <f>VLOOKUP(A26,[4]swrc_indices!$A$2:$G$26,7,TRUE)</f>
+        <v>0.21397024226091901</v>
+      </c>
+      <c r="Q26">
         <v>8.1968709999999998</v>
       </c>
-      <c r="M26">
+      <c r="R26">
         <v>2.0829420000000001</v>
       </c>
-      <c r="N26">
+      <c r="S26">
         <v>13.167526000000001</v>
       </c>
-      <c r="O26">
+      <c r="T26">
         <v>76.552660000000003</v>
       </c>
-      <c r="P26">
+      <c r="U26">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.0084220602192486</v>
       </c>
-      <c r="Q26">
+      <c r="V26">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.2628145214023734E-4</v>
       </c>
-      <c r="R26">
+      <c r="W26">
         <f>VLOOKUP(A26,[2]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.175</v>
       </c>
-      <c r="S26">
+      <c r="X26">
         <f>VLOOKUP(A26,[2]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>5.5E-2</v>
       </c>
-      <c r="T26">
+      <c r="Y26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.4696296149698698E-2</v>
       </c>
-      <c r="U26">
+      <c r="Z26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.5101782017149094E-2</v>
       </c>
-      <c r="V26">
+      <c r="AA26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>8.8836287606560899E-2</v>
       </c>
-      <c r="W26">
+      <c r="AB26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.10766220319762899</v>
       </c>
-      <c r="X26">
+      <c r="AC26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.13478830667952801</v>
       </c>
-      <c r="Y26">
+      <c r="AD26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.17667269691922199</v>
       </c>
-      <c r="Z26">
+      <c r="AE26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.24833034814970301</v>
       </c>
-      <c r="AA26">
+      <c r="AF26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.39361737273566799</v>
       </c>
-      <c r="AB26">
+      <c r="AG26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.81127942984720702</v>
       </c>
-      <c r="AC26">
+      <c r="AH26">
         <f>VLOOKUP(A26,[3]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.205183575399104</v>
       </c>

--- a/Data/params_struc.xlsx
+++ b/Data/params_struc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramodhegde/Documents/DSA/chapter_1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB602599-64ED-9445-ADF3-1F7CC2911C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4FCDB0-EAD4-CA4B-B383-37A1B6CA1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57724,7 +57724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>

--- a/Data/params_struc.xlsx
+++ b/Data/params_struc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramodhegde/Documents/DSA/chapter_1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4FCDB0-EAD4-CA4B-B383-37A1B6CA1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2E7415-2A04-6A4F-BC31-378EF111C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>thetar</t>
   </si>
@@ -169,12 +170,39 @@
   <si>
     <t>fissures</t>
   </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>air_capacity</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Sandy Clay Loam</t>
+  </si>
+  <si>
+    <t>Sandy Loam</t>
+  </si>
+  <si>
+    <t>Loamy Sand</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +350,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -666,13 +700,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -57397,6 +57432,3073 @@
           </cell>
           <cell r="L26" t="str">
             <v>NPK+Disturbance</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="soilnutrients_piedmont"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C2">
+            <v>20240829</v>
+          </cell>
+          <cell r="D2">
+            <v>33952</v>
+          </cell>
+          <cell r="E2">
+            <v>4.5</v>
+          </cell>
+          <cell r="F2">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="G2">
+            <v>5.2</v>
+          </cell>
+          <cell r="H2">
+            <v>7.78</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K2">
+            <v>6</v>
+          </cell>
+          <cell r="N2">
+            <v>43</v>
+          </cell>
+          <cell r="O2">
+            <v>421</v>
+          </cell>
+          <cell r="P2">
+            <v>69</v>
+          </cell>
+          <cell r="Q2">
+            <v>13</v>
+          </cell>
+          <cell r="R2">
+            <v>14</v>
+          </cell>
+          <cell r="S2">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="T2">
+            <v>38</v>
+          </cell>
+          <cell r="U2">
+            <v>104</v>
+          </cell>
+          <cell r="V2">
+            <v>1.9</v>
+          </cell>
+          <cell r="W2">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y2" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC2" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF2" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG2" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH2" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI2" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ2" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK2" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AL2" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM2" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN2" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO2" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ2">
+            <v>2.5</v>
+          </cell>
+          <cell r="AR2">
+            <v>13.1</v>
+          </cell>
+          <cell r="AS2">
+            <v>47.8</v>
+          </cell>
+          <cell r="AT2">
+            <v>1.4</v>
+          </cell>
+          <cell r="AU2">
+            <v>34.1</v>
+          </cell>
+          <cell r="AV2">
+            <v>1.7150000000000001</v>
+          </cell>
+          <cell r="AW2">
+            <v>9.5000000000000001E-2</v>
+          </cell>
+          <cell r="AX2">
+            <v>18.05263158</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>10</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C3">
+            <v>20240829</v>
+          </cell>
+          <cell r="D3">
+            <v>33962</v>
+          </cell>
+          <cell r="E3">
+            <v>5.7</v>
+          </cell>
+          <cell r="F3">
+            <v>3.3</v>
+          </cell>
+          <cell r="G3">
+            <v>5.2</v>
+          </cell>
+          <cell r="H3">
+            <v>7.82</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K3">
+            <v>9</v>
+          </cell>
+          <cell r="N3">
+            <v>87</v>
+          </cell>
+          <cell r="O3">
+            <v>269</v>
+          </cell>
+          <cell r="P3">
+            <v>64</v>
+          </cell>
+          <cell r="Q3">
+            <v>27</v>
+          </cell>
+          <cell r="R3">
+            <v>13</v>
+          </cell>
+          <cell r="S3">
+            <v>3.1</v>
+          </cell>
+          <cell r="T3">
+            <v>43</v>
+          </cell>
+          <cell r="U3">
+            <v>338</v>
+          </cell>
+          <cell r="V3">
+            <v>3</v>
+          </cell>
+          <cell r="W3">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y3" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC3" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF3" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AG3" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH3" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI3" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ3" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK3" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL3" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM3" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AN3" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AO3" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ3">
+            <v>6.8</v>
+          </cell>
+          <cell r="AR3">
+            <v>16.2</v>
+          </cell>
+          <cell r="AS3">
+            <v>40.799999999999997</v>
+          </cell>
+          <cell r="AT3">
+            <v>1.7</v>
+          </cell>
+          <cell r="AU3">
+            <v>33.299999999999997</v>
+          </cell>
+          <cell r="AV3">
+            <v>2.4550000000000001</v>
+          </cell>
+          <cell r="AW3">
+            <v>0.115</v>
+          </cell>
+          <cell r="AX3">
+            <v>21.347826090000002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>11</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C4">
+            <v>20240829</v>
+          </cell>
+          <cell r="D4">
+            <v>33963</v>
+          </cell>
+          <cell r="E4">
+            <v>4.3</v>
+          </cell>
+          <cell r="F4">
+            <v>3.2</v>
+          </cell>
+          <cell r="G4">
+            <v>5</v>
+          </cell>
+          <cell r="H4">
+            <v>7.8</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K4">
+            <v>22</v>
+          </cell>
+          <cell r="N4">
+            <v>79</v>
+          </cell>
+          <cell r="O4">
+            <v>228</v>
+          </cell>
+          <cell r="P4">
+            <v>56</v>
+          </cell>
+          <cell r="Q4">
+            <v>28</v>
+          </cell>
+          <cell r="R4">
+            <v>12</v>
+          </cell>
+          <cell r="S4">
+            <v>2.7</v>
+          </cell>
+          <cell r="T4">
+            <v>22</v>
+          </cell>
+          <cell r="U4">
+            <v>163</v>
+          </cell>
+          <cell r="V4">
+            <v>3</v>
+          </cell>
+          <cell r="W4">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y4" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC4" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF4" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH4" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI4" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ4" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK4" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL4" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AM4" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN4" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AO4" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ4">
+            <v>6.3</v>
+          </cell>
+          <cell r="AR4">
+            <v>14.6</v>
+          </cell>
+          <cell r="AS4">
+            <v>35.6</v>
+          </cell>
+          <cell r="AT4">
+            <v>1.6</v>
+          </cell>
+          <cell r="AU4">
+            <v>40.6</v>
+          </cell>
+          <cell r="AV4">
+            <v>1.7649999999999999</v>
+          </cell>
+          <cell r="AW4">
+            <v>0.09</v>
+          </cell>
+          <cell r="AX4">
+            <v>19.61111111</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>12</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C5">
+            <v>20240829</v>
+          </cell>
+          <cell r="D5">
+            <v>33964</v>
+          </cell>
+          <cell r="E5">
+            <v>5.3</v>
+          </cell>
+          <cell r="F5">
+            <v>5</v>
+          </cell>
+          <cell r="G5">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="H5">
+            <v>7.74</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K5">
+            <v>6</v>
+          </cell>
+          <cell r="N5">
+            <v>39</v>
+          </cell>
+          <cell r="O5">
+            <v>434</v>
+          </cell>
+          <cell r="P5">
+            <v>95</v>
+          </cell>
+          <cell r="Q5">
+            <v>16</v>
+          </cell>
+          <cell r="R5">
+            <v>13</v>
+          </cell>
+          <cell r="S5">
+            <v>1.8</v>
+          </cell>
+          <cell r="T5">
+            <v>28</v>
+          </cell>
+          <cell r="U5">
+            <v>184</v>
+          </cell>
+          <cell r="V5">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="W5">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y5" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC5" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF5" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AG5" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH5" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AI5" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ5" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK5" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL5" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM5" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN5" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO5" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ5">
+            <v>2</v>
+          </cell>
+          <cell r="AR5">
+            <v>15.8</v>
+          </cell>
+          <cell r="AS5">
+            <v>43.4</v>
+          </cell>
+          <cell r="AT5">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="AU5">
+            <v>38</v>
+          </cell>
+          <cell r="AV5">
+            <v>2.52</v>
+          </cell>
+          <cell r="AW5">
+            <v>0.16</v>
+          </cell>
+          <cell r="AX5">
+            <v>15.75</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>13</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C6">
+            <v>20240829</v>
+          </cell>
+          <cell r="D6">
+            <v>33965</v>
+          </cell>
+          <cell r="E6">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="F6">
+            <v>4.8</v>
+          </cell>
+          <cell r="G6">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="H6">
+            <v>7.72</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K6">
+            <v>41</v>
+          </cell>
+          <cell r="N6">
+            <v>58</v>
+          </cell>
+          <cell r="O6">
+            <v>397</v>
+          </cell>
+          <cell r="P6">
+            <v>60</v>
+          </cell>
+          <cell r="Q6">
+            <v>19</v>
+          </cell>
+          <cell r="R6">
+            <v>12</v>
+          </cell>
+          <cell r="S6">
+            <v>1.6</v>
+          </cell>
+          <cell r="T6">
+            <v>53</v>
+          </cell>
+          <cell r="U6">
+            <v>169</v>
+          </cell>
+          <cell r="V6">
+            <v>4.2</v>
+          </cell>
+          <cell r="W6">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y6" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC6" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AF6" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH6" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI6" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ6" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK6" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL6" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM6" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN6" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO6" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ6">
+            <v>3.1</v>
+          </cell>
+          <cell r="AR6">
+            <v>10.4</v>
+          </cell>
+          <cell r="AS6">
+            <v>41.4</v>
+          </cell>
+          <cell r="AT6">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="AU6">
+            <v>43.8</v>
+          </cell>
+          <cell r="AV6">
+            <v>2.7749999999999999</v>
+          </cell>
+          <cell r="AW6">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="AX6">
+            <v>19.821428569999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>14</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C7">
+            <v>20240829</v>
+          </cell>
+          <cell r="D7">
+            <v>33967</v>
+          </cell>
+          <cell r="E7">
+            <v>3.2</v>
+          </cell>
+          <cell r="F7">
+            <v>3</v>
+          </cell>
+          <cell r="G7">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="H7">
+            <v>7.8</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K7">
+            <v>22</v>
+          </cell>
+          <cell r="N7">
+            <v>46</v>
+          </cell>
+          <cell r="O7">
+            <v>211</v>
+          </cell>
+          <cell r="P7">
+            <v>51</v>
+          </cell>
+          <cell r="Q7">
+            <v>39</v>
+          </cell>
+          <cell r="R7">
+            <v>12</v>
+          </cell>
+          <cell r="S7">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="T7">
+            <v>53</v>
+          </cell>
+          <cell r="U7">
+            <v>175</v>
+          </cell>
+          <cell r="V7">
+            <v>6.3</v>
+          </cell>
+          <cell r="W7">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y7" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC7" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF7" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH7" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI7" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ7" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK7" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL7" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM7" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN7" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO7" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ7">
+            <v>3.9</v>
+          </cell>
+          <cell r="AR7">
+            <v>14.2</v>
+          </cell>
+          <cell r="AS7">
+            <v>35.200000000000003</v>
+          </cell>
+          <cell r="AT7">
+            <v>1.7</v>
+          </cell>
+          <cell r="AU7">
+            <v>43.3</v>
+          </cell>
+          <cell r="AV7">
+            <v>1.26</v>
+          </cell>
+          <cell r="AW7">
+            <v>5.5E-2</v>
+          </cell>
+          <cell r="AX7">
+            <v>22.90909091</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>15</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C8">
+            <v>20240829</v>
+          </cell>
+          <cell r="D8">
+            <v>33968</v>
+          </cell>
+          <cell r="E8">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="F8">
+            <v>3.9</v>
+          </cell>
+          <cell r="G8">
+            <v>5</v>
+          </cell>
+          <cell r="H8">
+            <v>7.77</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K8">
+            <v>7</v>
+          </cell>
+          <cell r="N8">
+            <v>68</v>
+          </cell>
+          <cell r="O8">
+            <v>284</v>
+          </cell>
+          <cell r="P8">
+            <v>78</v>
+          </cell>
+          <cell r="Q8">
+            <v>17</v>
+          </cell>
+          <cell r="R8">
+            <v>11</v>
+          </cell>
+          <cell r="S8">
+            <v>1.9</v>
+          </cell>
+          <cell r="T8">
+            <v>22</v>
+          </cell>
+          <cell r="U8">
+            <v>185</v>
+          </cell>
+          <cell r="V8">
+            <v>2.6</v>
+          </cell>
+          <cell r="W8">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y8" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC8" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF8" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH8" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI8" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ8" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK8" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL8" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AM8" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN8" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO8" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ8">
+            <v>4.5</v>
+          </cell>
+          <cell r="AR8">
+            <v>16.7</v>
+          </cell>
+          <cell r="AS8">
+            <v>36.4</v>
+          </cell>
+          <cell r="AT8">
+            <v>1.2</v>
+          </cell>
+          <cell r="AU8">
+            <v>41</v>
+          </cell>
+          <cell r="AV8">
+            <v>1.925</v>
+          </cell>
+          <cell r="AW8">
+            <v>0.12</v>
+          </cell>
+          <cell r="AX8">
+            <v>16.041666670000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>16</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C9">
+            <v>20240829</v>
+          </cell>
+          <cell r="D9">
+            <v>33969</v>
+          </cell>
+          <cell r="E9">
+            <v>5.4</v>
+          </cell>
+          <cell r="F9">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="G9">
+            <v>4.8</v>
+          </cell>
+          <cell r="H9">
+            <v>7.7</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K9">
+            <v>10</v>
+          </cell>
+          <cell r="N9">
+            <v>57</v>
+          </cell>
+          <cell r="O9">
+            <v>380</v>
+          </cell>
+          <cell r="P9">
+            <v>61</v>
+          </cell>
+          <cell r="Q9">
+            <v>28</v>
+          </cell>
+          <cell r="R9">
+            <v>12</v>
+          </cell>
+          <cell r="S9">
+            <v>1.3</v>
+          </cell>
+          <cell r="T9">
+            <v>49</v>
+          </cell>
+          <cell r="U9">
+            <v>151</v>
+          </cell>
+          <cell r="V9">
+            <v>2</v>
+          </cell>
+          <cell r="W9">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y9" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC9" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF9" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH9" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI9" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ9" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK9" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AL9" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM9" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN9" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO9" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ9">
+            <v>3</v>
+          </cell>
+          <cell r="AR9">
+            <v>10.4</v>
+          </cell>
+          <cell r="AS9">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="AT9">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="AU9">
+            <v>46.9</v>
+          </cell>
+          <cell r="AV9">
+            <v>3.2450000000000001</v>
+          </cell>
+          <cell r="AW9">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="AX9">
+            <v>23.178571430000002</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>17</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C10">
+            <v>20240829</v>
+          </cell>
+          <cell r="D10">
+            <v>33970</v>
+          </cell>
+          <cell r="E10">
+            <v>5.5</v>
+          </cell>
+          <cell r="F10">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="G10">
+            <v>5.2</v>
+          </cell>
+          <cell r="H10">
+            <v>7.76</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K10">
+            <v>43</v>
+          </cell>
+          <cell r="N10">
+            <v>70</v>
+          </cell>
+          <cell r="O10">
+            <v>485</v>
+          </cell>
+          <cell r="P10">
+            <v>65</v>
+          </cell>
+          <cell r="Q10">
+            <v>40</v>
+          </cell>
+          <cell r="R10">
+            <v>11</v>
+          </cell>
+          <cell r="S10">
+            <v>2.1</v>
+          </cell>
+          <cell r="T10">
+            <v>24</v>
+          </cell>
+          <cell r="U10">
+            <v>152</v>
+          </cell>
+          <cell r="V10">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="W10">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y10" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC10" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AF10" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH10" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI10" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ10" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK10" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL10" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AM10" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN10" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO10" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ10">
+            <v>3.7</v>
+          </cell>
+          <cell r="AR10">
+            <v>11.1</v>
+          </cell>
+          <cell r="AS10">
+            <v>49.5</v>
+          </cell>
+          <cell r="AT10">
+            <v>1</v>
+          </cell>
+          <cell r="AU10">
+            <v>34.700000000000003</v>
+          </cell>
+          <cell r="AV10">
+            <v>2.62</v>
+          </cell>
+          <cell r="AW10">
+            <v>0.13500000000000001</v>
+          </cell>
+          <cell r="AX10">
+            <v>19.407407410000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>18</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C11">
+            <v>20240829</v>
+          </cell>
+          <cell r="D11">
+            <v>33971</v>
+          </cell>
+          <cell r="E11">
+            <v>4.7</v>
+          </cell>
+          <cell r="F11">
+            <v>3.8</v>
+          </cell>
+          <cell r="G11">
+            <v>4.7</v>
+          </cell>
+          <cell r="H11">
+            <v>7.74</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K11">
+            <v>17</v>
+          </cell>
+          <cell r="N11">
+            <v>38</v>
+          </cell>
+          <cell r="O11">
+            <v>276</v>
+          </cell>
+          <cell r="P11">
+            <v>45</v>
+          </cell>
+          <cell r="Q11">
+            <v>30</v>
+          </cell>
+          <cell r="R11">
+            <v>12</v>
+          </cell>
+          <cell r="S11">
+            <v>2.9</v>
+          </cell>
+          <cell r="T11">
+            <v>23</v>
+          </cell>
+          <cell r="U11">
+            <v>138</v>
+          </cell>
+          <cell r="V11">
+            <v>2.9</v>
+          </cell>
+          <cell r="W11">
+            <v>0.1</v>
+          </cell>
+          <cell r="Y11" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC11" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF11" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH11" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI11" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ11" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK11" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL11" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AM11" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN11" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO11" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AQ11">
+            <v>2.6</v>
+          </cell>
+          <cell r="AR11">
+            <v>9.9</v>
+          </cell>
+          <cell r="AS11">
+            <v>36.299999999999997</v>
+          </cell>
+          <cell r="AT11">
+            <v>1.4</v>
+          </cell>
+          <cell r="AU11">
+            <v>50</v>
+          </cell>
+          <cell r="AV11">
+            <v>2.0699999999999998</v>
+          </cell>
+          <cell r="AW11">
+            <v>0.1</v>
+          </cell>
+          <cell r="AX11">
+            <v>20.7</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>19</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C12">
+            <v>20240829</v>
+          </cell>
+          <cell r="D12">
+            <v>33972</v>
+          </cell>
+          <cell r="E12">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="F12">
+            <v>4.3</v>
+          </cell>
+          <cell r="G12">
+            <v>5</v>
+          </cell>
+          <cell r="H12">
+            <v>7.75</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K12">
+            <v>21</v>
+          </cell>
+          <cell r="N12">
+            <v>85</v>
+          </cell>
+          <cell r="O12">
+            <v>346</v>
+          </cell>
+          <cell r="P12">
+            <v>66</v>
+          </cell>
+          <cell r="Q12">
+            <v>15</v>
+          </cell>
+          <cell r="R12">
+            <v>11</v>
+          </cell>
+          <cell r="S12">
+            <v>3.4</v>
+          </cell>
+          <cell r="T12">
+            <v>45</v>
+          </cell>
+          <cell r="U12">
+            <v>143</v>
+          </cell>
+          <cell r="V12">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="W12">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y12" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC12" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF12" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AG12" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH12" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI12" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ12" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK12" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL12" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM12" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN12" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO12" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ12">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="AR12">
+            <v>12.8</v>
+          </cell>
+          <cell r="AS12">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="AT12">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="AU12">
+            <v>41.9</v>
+          </cell>
+          <cell r="AV12">
+            <v>2.5249999999999999</v>
+          </cell>
+          <cell r="AW12">
+            <v>0.11</v>
+          </cell>
+          <cell r="AX12">
+            <v>22.954545450000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C13">
+            <v>20240829</v>
+          </cell>
+          <cell r="D13">
+            <v>33953</v>
+          </cell>
+          <cell r="E13">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="F13">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="G13">
+            <v>4.8</v>
+          </cell>
+          <cell r="H13">
+            <v>7.74</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K13">
+            <v>20</v>
+          </cell>
+          <cell r="N13">
+            <v>49</v>
+          </cell>
+          <cell r="O13">
+            <v>311</v>
+          </cell>
+          <cell r="P13">
+            <v>53</v>
+          </cell>
+          <cell r="Q13">
+            <v>37</v>
+          </cell>
+          <cell r="R13">
+            <v>11</v>
+          </cell>
+          <cell r="S13">
+            <v>2.6</v>
+          </cell>
+          <cell r="T13">
+            <v>34</v>
+          </cell>
+          <cell r="U13">
+            <v>128</v>
+          </cell>
+          <cell r="V13">
+            <v>4.8</v>
+          </cell>
+          <cell r="W13">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y13" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC13" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF13" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG13" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH13" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI13" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ13" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK13" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL13" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM13" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN13" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO13" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ13">
+            <v>3.1</v>
+          </cell>
+          <cell r="AR13">
+            <v>10.8</v>
+          </cell>
+          <cell r="AS13">
+            <v>37.9</v>
+          </cell>
+          <cell r="AT13">
+            <v>1.2</v>
+          </cell>
+          <cell r="AU13">
+            <v>46.3</v>
+          </cell>
+          <cell r="AV13">
+            <v>1.4650000000000001</v>
+          </cell>
+          <cell r="AW13">
+            <v>9.5000000000000001E-2</v>
+          </cell>
+          <cell r="AX13">
+            <v>15.42105263</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>20</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C14">
+            <v>20240829</v>
+          </cell>
+          <cell r="D14">
+            <v>33973</v>
+          </cell>
+          <cell r="E14">
+            <v>3.8</v>
+          </cell>
+          <cell r="F14">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="G14">
+            <v>5.4</v>
+          </cell>
+          <cell r="H14">
+            <v>7.8</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K14">
+            <v>6</v>
+          </cell>
+          <cell r="N14">
+            <v>49</v>
+          </cell>
+          <cell r="O14">
+            <v>506</v>
+          </cell>
+          <cell r="P14">
+            <v>69</v>
+          </cell>
+          <cell r="Q14">
+            <v>11</v>
+          </cell>
+          <cell r="R14">
+            <v>12</v>
+          </cell>
+          <cell r="S14">
+            <v>4.5</v>
+          </cell>
+          <cell r="T14">
+            <v>52</v>
+          </cell>
+          <cell r="U14">
+            <v>79</v>
+          </cell>
+          <cell r="V14">
+            <v>16.399999999999999</v>
+          </cell>
+          <cell r="W14">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y14" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC14" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF14" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AH14" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI14" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ14" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK14" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL14" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM14" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AN14" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO14" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ14">
+            <v>2.7</v>
+          </cell>
+          <cell r="AR14">
+            <v>12.5</v>
+          </cell>
+          <cell r="AS14">
+            <v>55</v>
+          </cell>
+          <cell r="AT14">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="AU14">
+            <v>28.3</v>
+          </cell>
+          <cell r="AV14">
+            <v>1.325</v>
+          </cell>
+          <cell r="AW14">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="AX14">
+            <v>18.928571430000002</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>21</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C15">
+            <v>20240829</v>
+          </cell>
+          <cell r="D15">
+            <v>33974</v>
+          </cell>
+          <cell r="E15">
+            <v>3.5</v>
+          </cell>
+          <cell r="F15">
+            <v>3.6</v>
+          </cell>
+          <cell r="G15">
+            <v>4.8</v>
+          </cell>
+          <cell r="H15">
+            <v>7.76</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K15">
+            <v>28</v>
+          </cell>
+          <cell r="N15">
+            <v>41</v>
+          </cell>
+          <cell r="O15">
+            <v>255</v>
+          </cell>
+          <cell r="P15">
+            <v>53</v>
+          </cell>
+          <cell r="Q15">
+            <v>29</v>
+          </cell>
+          <cell r="R15">
+            <v>11</v>
+          </cell>
+          <cell r="S15">
+            <v>6.4</v>
+          </cell>
+          <cell r="T15">
+            <v>47</v>
+          </cell>
+          <cell r="U15">
+            <v>128</v>
+          </cell>
+          <cell r="V15">
+            <v>9.6</v>
+          </cell>
+          <cell r="W15">
+            <v>0.3</v>
+          </cell>
+          <cell r="Y15" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC15" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF15" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG15" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH15" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI15" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ15" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK15" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL15" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM15" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN15" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO15" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ15">
+            <v>2.9</v>
+          </cell>
+          <cell r="AR15">
+            <v>12.3</v>
+          </cell>
+          <cell r="AS15">
+            <v>35.4</v>
+          </cell>
+          <cell r="AT15">
+            <v>1.3</v>
+          </cell>
+          <cell r="AU15">
+            <v>47.2</v>
+          </cell>
+          <cell r="AV15">
+            <v>1.49</v>
+          </cell>
+          <cell r="AW15">
+            <v>0.1</v>
+          </cell>
+          <cell r="AX15">
+            <v>14.9</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>22</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C16">
+            <v>20240829</v>
+          </cell>
+          <cell r="D16">
+            <v>33975</v>
+          </cell>
+          <cell r="E16">
+            <v>8.3000000000000007</v>
+          </cell>
+          <cell r="F16">
+            <v>11.3</v>
+          </cell>
+          <cell r="G16">
+            <v>4.7</v>
+          </cell>
+          <cell r="H16">
+            <v>7.36</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K16">
+            <v>15</v>
+          </cell>
+          <cell r="N16">
+            <v>106</v>
+          </cell>
+          <cell r="O16">
+            <v>794</v>
+          </cell>
+          <cell r="P16">
+            <v>152</v>
+          </cell>
+          <cell r="Q16">
+            <v>11</v>
+          </cell>
+          <cell r="R16">
+            <v>12</v>
+          </cell>
+          <cell r="S16">
+            <v>2.7</v>
+          </cell>
+          <cell r="T16">
+            <v>42</v>
+          </cell>
+          <cell r="U16">
+            <v>118</v>
+          </cell>
+          <cell r="V16">
+            <v>1.9</v>
+          </cell>
+          <cell r="W16">
+            <v>0.3</v>
+          </cell>
+          <cell r="Y16" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC16" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF16" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG16" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH16" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI16" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ16" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK16" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL16" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM16" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN16" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO16" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ16">
+            <v>2.4</v>
+          </cell>
+          <cell r="AR16">
+            <v>11.2</v>
+          </cell>
+          <cell r="AS16">
+            <v>35.1</v>
+          </cell>
+          <cell r="AT16">
+            <v>0.5</v>
+          </cell>
+          <cell r="AU16">
+            <v>50.4</v>
+          </cell>
+          <cell r="AV16">
+            <v>4.6449999999999996</v>
+          </cell>
+          <cell r="AW16">
+            <v>0.255</v>
+          </cell>
+          <cell r="AX16">
+            <v>18.215686269999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>23</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C17">
+            <v>20240829</v>
+          </cell>
+          <cell r="D17">
+            <v>33976</v>
+          </cell>
+          <cell r="E17">
+            <v>3.6</v>
+          </cell>
+          <cell r="F17">
+            <v>3.7</v>
+          </cell>
+          <cell r="G17">
+            <v>4.7</v>
+          </cell>
+          <cell r="H17">
+            <v>7.74</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K17">
+            <v>11</v>
+          </cell>
+          <cell r="N17">
+            <v>31</v>
+          </cell>
+          <cell r="O17">
+            <v>266</v>
+          </cell>
+          <cell r="P17">
+            <v>44</v>
+          </cell>
+          <cell r="Q17">
+            <v>16</v>
+          </cell>
+          <cell r="R17">
+            <v>11</v>
+          </cell>
+          <cell r="S17">
+            <v>0.9</v>
+          </cell>
+          <cell r="T17">
+            <v>27</v>
+          </cell>
+          <cell r="U17">
+            <v>124</v>
+          </cell>
+          <cell r="V17">
+            <v>0.8</v>
+          </cell>
+          <cell r="W17">
+            <v>0.1</v>
+          </cell>
+          <cell r="Y17" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC17" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF17" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AG17" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH17" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI17" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ17" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK17" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AL17" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM17" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN17" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AO17" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AQ17">
+            <v>2.1</v>
+          </cell>
+          <cell r="AR17">
+            <v>9.9</v>
+          </cell>
+          <cell r="AS17">
+            <v>35.9</v>
+          </cell>
+          <cell r="AT17">
+            <v>1.3</v>
+          </cell>
+          <cell r="AU17">
+            <v>51.4</v>
+          </cell>
+          <cell r="AV17">
+            <v>1.31</v>
+          </cell>
+          <cell r="AW17">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="AX17">
+            <v>18.714285709999999</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>24</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C18">
+            <v>20240829</v>
+          </cell>
+          <cell r="D18">
+            <v>33978</v>
+          </cell>
+          <cell r="E18">
+            <v>4.5</v>
+          </cell>
+          <cell r="F18">
+            <v>5.6</v>
+          </cell>
+          <cell r="G18">
+            <v>5</v>
+          </cell>
+          <cell r="H18">
+            <v>7.7</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K18">
+            <v>9</v>
+          </cell>
+          <cell r="N18">
+            <v>57</v>
+          </cell>
+          <cell r="O18">
+            <v>497</v>
+          </cell>
+          <cell r="P18">
+            <v>80</v>
+          </cell>
+          <cell r="Q18">
+            <v>24</v>
+          </cell>
+          <cell r="R18">
+            <v>12</v>
+          </cell>
+          <cell r="S18">
+            <v>6.9</v>
+          </cell>
+          <cell r="T18">
+            <v>50</v>
+          </cell>
+          <cell r="U18">
+            <v>122</v>
+          </cell>
+          <cell r="V18">
+            <v>7.8</v>
+          </cell>
+          <cell r="W18">
+            <v>0.3</v>
+          </cell>
+          <cell r="Y18" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC18" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF18" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG18" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH18" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI18" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ18" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK18" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL18" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM18" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN18" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO18" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ18">
+            <v>2.6</v>
+          </cell>
+          <cell r="AR18">
+            <v>11.9</v>
+          </cell>
+          <cell r="AS18">
+            <v>44.4</v>
+          </cell>
+          <cell r="AT18">
+            <v>0.9</v>
+          </cell>
+          <cell r="AU18">
+            <v>41.1</v>
+          </cell>
+          <cell r="AV18">
+            <v>1.9750000000000001</v>
+          </cell>
+          <cell r="AW18">
+            <v>9.5000000000000001E-2</v>
+          </cell>
+          <cell r="AX18">
+            <v>20.78947368</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>25</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C19">
+            <v>20240829</v>
+          </cell>
+          <cell r="D19">
+            <v>33979</v>
+          </cell>
+          <cell r="E19">
+            <v>3</v>
+          </cell>
+          <cell r="F19">
+            <v>3.6</v>
+          </cell>
+          <cell r="G19">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="H19">
+            <v>7.77</v>
+          </cell>
+          <cell r="J19" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K19">
+            <v>99</v>
+          </cell>
+          <cell r="N19">
+            <v>54</v>
+          </cell>
+          <cell r="O19">
+            <v>281</v>
+          </cell>
+          <cell r="P19">
+            <v>47</v>
+          </cell>
+          <cell r="Q19">
+            <v>48</v>
+          </cell>
+          <cell r="R19">
+            <v>13</v>
+          </cell>
+          <cell r="S19">
+            <v>5.5</v>
+          </cell>
+          <cell r="T19">
+            <v>36</v>
+          </cell>
+          <cell r="U19">
+            <v>142</v>
+          </cell>
+          <cell r="V19">
+            <v>7.6</v>
+          </cell>
+          <cell r="W19">
+            <v>0.3</v>
+          </cell>
+          <cell r="Y19" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AC19" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AF19" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG19" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH19" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI19" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AJ19" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK19" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL19" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM19" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN19" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO19" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ19">
+            <v>3.8</v>
+          </cell>
+          <cell r="AR19">
+            <v>10.9</v>
+          </cell>
+          <cell r="AS19">
+            <v>39</v>
+          </cell>
+          <cell r="AT19">
+            <v>1.6</v>
+          </cell>
+          <cell r="AU19">
+            <v>44.4</v>
+          </cell>
+          <cell r="AV19">
+            <v>1.175</v>
+          </cell>
+          <cell r="AW19">
+            <v>5.5E-2</v>
+          </cell>
+          <cell r="AX19">
+            <v>21.363636360000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>3</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C20">
+            <v>20240829</v>
+          </cell>
+          <cell r="D20">
+            <v>33954</v>
+          </cell>
+          <cell r="E20">
+            <v>6.5</v>
+          </cell>
+          <cell r="F20">
+            <v>4</v>
+          </cell>
+          <cell r="G20">
+            <v>4.8</v>
+          </cell>
+          <cell r="H20">
+            <v>7.74</v>
+          </cell>
+          <cell r="J20" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K20">
+            <v>8</v>
+          </cell>
+          <cell r="N20">
+            <v>53</v>
+          </cell>
+          <cell r="O20">
+            <v>267</v>
+          </cell>
+          <cell r="P20">
+            <v>71</v>
+          </cell>
+          <cell r="Q20">
+            <v>27</v>
+          </cell>
+          <cell r="R20">
+            <v>14</v>
+          </cell>
+          <cell r="S20">
+            <v>3.2</v>
+          </cell>
+          <cell r="T20">
+            <v>35</v>
+          </cell>
+          <cell r="U20">
+            <v>217</v>
+          </cell>
+          <cell r="V20">
+            <v>2.8</v>
+          </cell>
+          <cell r="W20">
+            <v>0.3</v>
+          </cell>
+          <cell r="Y20" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC20" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF20" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG20" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH20" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI20" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ20" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK20" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL20" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM20" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AN20" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO20" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ20">
+            <v>3.4</v>
+          </cell>
+          <cell r="AR20">
+            <v>14.8</v>
+          </cell>
+          <cell r="AS20">
+            <v>33.4</v>
+          </cell>
+          <cell r="AT20">
+            <v>1.5</v>
+          </cell>
+          <cell r="AU20">
+            <v>47.5</v>
+          </cell>
+          <cell r="AV20">
+            <v>2.82</v>
+          </cell>
+          <cell r="AW20">
+            <v>0.14499999999999999</v>
+          </cell>
+          <cell r="AX20">
+            <v>19.448275859999999</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>4</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C21">
+            <v>20240829</v>
+          </cell>
+          <cell r="D21">
+            <v>33956</v>
+          </cell>
+          <cell r="E21">
+            <v>5</v>
+          </cell>
+          <cell r="F21">
+            <v>3.6</v>
+          </cell>
+          <cell r="G21">
+            <v>5</v>
+          </cell>
+          <cell r="H21">
+            <v>7.78</v>
+          </cell>
+          <cell r="J21" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K21">
+            <v>9</v>
+          </cell>
+          <cell r="N21">
+            <v>63</v>
+          </cell>
+          <cell r="O21">
+            <v>296</v>
+          </cell>
+          <cell r="P21">
+            <v>54</v>
+          </cell>
+          <cell r="Q21">
+            <v>20</v>
+          </cell>
+          <cell r="R21">
+            <v>11</v>
+          </cell>
+          <cell r="S21">
+            <v>0.9</v>
+          </cell>
+          <cell r="T21">
+            <v>24</v>
+          </cell>
+          <cell r="U21">
+            <v>86</v>
+          </cell>
+          <cell r="V21">
+            <v>1.3</v>
+          </cell>
+          <cell r="W21">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y21" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC21" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF21" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG21" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH21" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI21" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ21" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK21" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AL21" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AM21" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AN21" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO21" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ21">
+            <v>4.5</v>
+          </cell>
+          <cell r="AR21">
+            <v>12.5</v>
+          </cell>
+          <cell r="AS21">
+            <v>41.1</v>
+          </cell>
+          <cell r="AT21">
+            <v>1.3</v>
+          </cell>
+          <cell r="AU21">
+            <v>41.7</v>
+          </cell>
+          <cell r="AV21">
+            <v>2.0499999999999998</v>
+          </cell>
+          <cell r="AW21">
+            <v>0.1</v>
+          </cell>
+          <cell r="AX21">
+            <v>20.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>5</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C22">
+            <v>20240829</v>
+          </cell>
+          <cell r="D22">
+            <v>33957</v>
+          </cell>
+          <cell r="E22">
+            <v>3.2</v>
+          </cell>
+          <cell r="F22">
+            <v>2.6</v>
+          </cell>
+          <cell r="G22">
+            <v>4.7</v>
+          </cell>
+          <cell r="H22">
+            <v>7.8</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K22">
+            <v>15</v>
+          </cell>
+          <cell r="N22">
+            <v>42</v>
+          </cell>
+          <cell r="O22">
+            <v>147</v>
+          </cell>
+          <cell r="P22">
+            <v>44</v>
+          </cell>
+          <cell r="Q22">
+            <v>36</v>
+          </cell>
+          <cell r="R22">
+            <v>10</v>
+          </cell>
+          <cell r="S22">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="T22">
+            <v>44</v>
+          </cell>
+          <cell r="U22">
+            <v>107</v>
+          </cell>
+          <cell r="V22">
+            <v>8.1</v>
+          </cell>
+          <cell r="W22">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y22" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC22" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF22" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG22" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AH22" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI22" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ22" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK22" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL22" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM22" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN22" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO22" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ22">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="AR22">
+            <v>14.1</v>
+          </cell>
+          <cell r="AS22">
+            <v>28.3</v>
+          </cell>
+          <cell r="AT22">
+            <v>1.7</v>
+          </cell>
+          <cell r="AU22">
+            <v>50</v>
+          </cell>
+          <cell r="AV22">
+            <v>1.1499999999999999</v>
+          </cell>
+          <cell r="AW22">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="AX22">
+            <v>16.428571430000002</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>6</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C23">
+            <v>20240829</v>
+          </cell>
+          <cell r="D23">
+            <v>33958</v>
+          </cell>
+          <cell r="E23">
+            <v>5.4</v>
+          </cell>
+          <cell r="F23">
+            <v>5</v>
+          </cell>
+          <cell r="G23">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="H23">
+            <v>7.66</v>
+          </cell>
+          <cell r="J23" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K23">
+            <v>11</v>
+          </cell>
+          <cell r="N23">
+            <v>70</v>
+          </cell>
+          <cell r="O23">
+            <v>332</v>
+          </cell>
+          <cell r="P23">
+            <v>49</v>
+          </cell>
+          <cell r="Q23">
+            <v>34</v>
+          </cell>
+          <cell r="R23">
+            <v>13</v>
+          </cell>
+          <cell r="S23">
+            <v>2.6</v>
+          </cell>
+          <cell r="T23">
+            <v>40</v>
+          </cell>
+          <cell r="U23">
+            <v>131</v>
+          </cell>
+          <cell r="V23">
+            <v>3.7</v>
+          </cell>
+          <cell r="W23">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y23" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC23" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF23" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AG23" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH23" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI23" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ23" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK23" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL23" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM23" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AN23" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AO23" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ23">
+            <v>3.6</v>
+          </cell>
+          <cell r="AR23">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="AS23">
+            <v>33.200000000000003</v>
+          </cell>
+          <cell r="AT23">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="AU23">
+            <v>54</v>
+          </cell>
+          <cell r="AV23">
+            <v>1.9450000000000001</v>
+          </cell>
+          <cell r="AW23">
+            <v>0.08</v>
+          </cell>
+          <cell r="AX23">
+            <v>24.3125</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>7</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C24">
+            <v>20240829</v>
+          </cell>
+          <cell r="D24">
+            <v>33959</v>
+          </cell>
+          <cell r="E24">
+            <v>3.9</v>
+          </cell>
+          <cell r="F24">
+            <v>2.8</v>
+          </cell>
+          <cell r="G24">
+            <v>5.4</v>
+          </cell>
+          <cell r="H24">
+            <v>7.85</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K24">
+            <v>7</v>
+          </cell>
+          <cell r="N24">
+            <v>73</v>
+          </cell>
+          <cell r="O24">
+            <v>269</v>
+          </cell>
+          <cell r="P24">
+            <v>53</v>
+          </cell>
+          <cell r="Q24">
+            <v>13</v>
+          </cell>
+          <cell r="R24">
+            <v>12</v>
+          </cell>
+          <cell r="S24">
+            <v>0.9</v>
+          </cell>
+          <cell r="T24">
+            <v>36</v>
+          </cell>
+          <cell r="U24">
+            <v>271</v>
+          </cell>
+          <cell r="V24">
+            <v>1.5</v>
+          </cell>
+          <cell r="W24">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y24" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AC24" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF24" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AG24" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH24" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AI24" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ24" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK24" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AL24" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM24" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AN24" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO24" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ24">
+            <v>6.7</v>
+          </cell>
+          <cell r="AR24">
+            <v>15.8</v>
+          </cell>
+          <cell r="AS24">
+            <v>48</v>
+          </cell>
+          <cell r="AT24">
+            <v>1.9</v>
+          </cell>
+          <cell r="AU24">
+            <v>28.6</v>
+          </cell>
+          <cell r="AV24">
+            <v>1.27</v>
+          </cell>
+          <cell r="AW24">
+            <v>6.5000000000000002E-2</v>
+          </cell>
+          <cell r="AX24">
+            <v>19.53846154</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>8</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C25">
+            <v>20240829</v>
+          </cell>
+          <cell r="D25">
+            <v>33960</v>
+          </cell>
+          <cell r="E25">
+            <v>7.3</v>
+          </cell>
+          <cell r="F25">
+            <v>4.8</v>
+          </cell>
+          <cell r="G25">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="H25">
+            <v>7.75</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K25">
+            <v>5</v>
+          </cell>
+          <cell r="N25">
+            <v>53</v>
+          </cell>
+          <cell r="O25">
+            <v>435</v>
+          </cell>
+          <cell r="P25">
+            <v>76</v>
+          </cell>
+          <cell r="Q25">
+            <v>12</v>
+          </cell>
+          <cell r="R25">
+            <v>11</v>
+          </cell>
+          <cell r="S25">
+            <v>1.7</v>
+          </cell>
+          <cell r="T25">
+            <v>39</v>
+          </cell>
+          <cell r="U25">
+            <v>394</v>
+          </cell>
+          <cell r="V25">
+            <v>2.4</v>
+          </cell>
+          <cell r="W25">
+            <v>0.3</v>
+          </cell>
+          <cell r="Y25" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC25" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AF25" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AG25" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH25" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI25" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AJ25" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK25" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AL25" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM25" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AN25" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AO25" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ25">
+            <v>2.8</v>
+          </cell>
+          <cell r="AR25">
+            <v>13.2</v>
+          </cell>
+          <cell r="AS25">
+            <v>45.3</v>
+          </cell>
+          <cell r="AT25">
+            <v>1</v>
+          </cell>
+          <cell r="AU25">
+            <v>37.5</v>
+          </cell>
+          <cell r="AV25">
+            <v>3.915</v>
+          </cell>
+          <cell r="AW25">
+            <v>0.185</v>
+          </cell>
+          <cell r="AX25">
+            <v>21.162162160000001</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>9</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>23-307-2018</v>
+          </cell>
+          <cell r="C26">
+            <v>20240829</v>
+          </cell>
+          <cell r="D26">
+            <v>33961</v>
+          </cell>
+          <cell r="E26">
+            <v>5.4</v>
+          </cell>
+          <cell r="F26">
+            <v>3.8</v>
+          </cell>
+          <cell r="G26">
+            <v>5.3</v>
+          </cell>
+          <cell r="H26">
+            <v>7.81</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>ppm</v>
+          </cell>
+          <cell r="K26">
+            <v>16</v>
+          </cell>
+          <cell r="N26">
+            <v>73</v>
+          </cell>
+          <cell r="O26">
+            <v>347</v>
+          </cell>
+          <cell r="P26">
+            <v>76</v>
+          </cell>
+          <cell r="Q26">
+            <v>29</v>
+          </cell>
+          <cell r="R26">
+            <v>12</v>
+          </cell>
+          <cell r="S26">
+            <v>6.2</v>
+          </cell>
+          <cell r="T26">
+            <v>57</v>
+          </cell>
+          <cell r="U26">
+            <v>231</v>
+          </cell>
+          <cell r="V26">
+            <v>8.9</v>
+          </cell>
+          <cell r="W26">
+            <v>0.3</v>
+          </cell>
+          <cell r="Y26" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AC26" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AF26" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AG26" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AH26" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AI26" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AJ26" t="str">
+            <v>VL</v>
+          </cell>
+          <cell r="AK26" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="AL26" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="AM26" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AN26" t="str">
+            <v>VH</v>
+          </cell>
+          <cell r="AO26" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="AQ26">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="AR26">
+            <v>16.7</v>
+          </cell>
+          <cell r="AS26">
+            <v>45.7</v>
+          </cell>
+          <cell r="AT26">
+            <v>1.4</v>
+          </cell>
+          <cell r="AU26">
+            <v>31.6</v>
+          </cell>
+          <cell r="AV26">
+            <v>2.5249999999999999</v>
+          </cell>
+          <cell r="AW26">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="AX26">
+            <v>18.035714290000001</v>
           </cell>
         </row>
       </sheetData>
@@ -57722,10 +60824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57738,9 +60840,10 @@
     <col min="35" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -57858,8 +60961,26 @@
       <c r="AM1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="AN1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -57870,16 +60991,16 @@
         <v>0.55089532971604305</v>
       </c>
       <c r="D2">
+        <v>6.7688407255760099</v>
+      </c>
+      <c r="E2">
+        <v>1.2797324123882601</v>
+      </c>
+      <c r="F2">
         <v>1.2063102103432701E-2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2.22095922142916</v>
-      </c>
-      <c r="F2">
-        <v>6.7688407255760099</v>
-      </c>
-      <c r="G2">
-        <v>1.2797324123882601</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -57993,8 +61114,27 @@
       <c r="AM2">
         <v>10.138955807933909</v>
       </c>
+      <c r="AN2">
+        <f>VLOOKUP(A2,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0.23564703000000001</v>
+      </c>
+      <c r="AP2">
+        <v>61</v>
+      </c>
+      <c r="AQ2">
+        <v>17</v>
+      </c>
+      <c r="AR2">
+        <v>22</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -58005,16 +61145,16 @@
         <v>0.57184264678755203</v>
       </c>
       <c r="D3">
+        <v>6.3602915608653996</v>
+      </c>
+      <c r="E3">
+        <v>1.64909266691685</v>
+      </c>
+      <c r="F3">
         <v>0.20233324492132601</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2.9165302229996901</v>
-      </c>
-      <c r="F3">
-        <v>6.3602915608653996</v>
-      </c>
-      <c r="G3">
-        <v>1.64909266691685</v>
       </c>
       <c r="H3">
         <v>0.45682873843051502</v>
@@ -58128,8 +61268,27 @@
       <c r="AM3">
         <v>10.456889732435259</v>
       </c>
+      <c r="AN3">
+        <f>VLOOKUP(A3,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0.20569122000000001</v>
+      </c>
+      <c r="AP3">
+        <v>61</v>
+      </c>
+      <c r="AQ3">
+        <v>17</v>
+      </c>
+      <c r="AR3">
+        <v>22</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -58263,8 +61422,27 @@
       <c r="AM4">
         <v>5.0811097327175361</v>
       </c>
+      <c r="AN4">
+        <f>VLOOKUP(A4,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0.18006148</v>
+      </c>
+      <c r="AP4">
+        <v>53</v>
+      </c>
+      <c r="AQ4">
+        <v>21</v>
+      </c>
+      <c r="AR4">
+        <v>26</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -58398,8 +61576,27 @@
       <c r="AM5">
         <v>8.6028109863615185</v>
       </c>
+      <c r="AN5">
+        <f>VLOOKUP(A5,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0.2744723</v>
+      </c>
+      <c r="AP5">
+        <v>63</v>
+      </c>
+      <c r="AQ5">
+        <v>18</v>
+      </c>
+      <c r="AR5">
+        <v>19</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -58410,16 +61607,16 @@
         <v>0.579697561328822</v>
       </c>
       <c r="D6">
+        <v>5.4923990000345997</v>
+      </c>
+      <c r="E6">
+        <v>1.6685463614039899</v>
+      </c>
+      <c r="F6">
         <v>0.136773821877961</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>2.7091702279047198</v>
-      </c>
-      <c r="F6">
-        <v>5.4923990000345997</v>
-      </c>
-      <c r="G6">
-        <v>1.6685463614039899</v>
       </c>
       <c r="H6">
         <v>0.378155544852949</v>
@@ -58533,8 +61730,27 @@
       <c r="AM6">
         <v>5.9838714289178094</v>
       </c>
+      <c r="AN6">
+        <f>VLOOKUP(A6,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0.24258877000000001</v>
+      </c>
+      <c r="AP6">
+        <v>59</v>
+      </c>
+      <c r="AQ6">
+        <v>13</v>
+      </c>
+      <c r="AR6">
+        <v>28</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -58545,16 +61761,16 @@
         <v>0.53907364930719504</v>
       </c>
       <c r="D7">
+        <v>3.8761807037486</v>
+      </c>
+      <c r="E7">
+        <v>1.8972754768089299</v>
+      </c>
+      <c r="F7">
         <v>9.2293182114893305E-2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2.6805126127061998</v>
-      </c>
-      <c r="F7">
-        <v>3.8761807037486</v>
-      </c>
-      <c r="G7">
-        <v>1.8972754768089299</v>
       </c>
       <c r="H7">
         <v>0.38515934124662399</v>
@@ -58668,8 +61884,27 @@
       <c r="AM7">
         <v>1.5441256184544441</v>
       </c>
+      <c r="AN7">
+        <f>VLOOKUP(A7,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5.4</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0.23832112</v>
+      </c>
+      <c r="AP7">
+        <v>61</v>
+      </c>
+      <c r="AQ7">
+        <v>13</v>
+      </c>
+      <c r="AR7">
+        <v>26</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -58680,16 +61915,16 @@
         <v>0.57693016360529803</v>
       </c>
       <c r="D8">
+        <v>8.1698164030353606</v>
+      </c>
+      <c r="E8">
+        <v>1.4975242443846399</v>
+      </c>
+      <c r="F8">
         <v>0.16488531142361401</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>2.8882584406812302</v>
-      </c>
-      <c r="F8">
-        <v>8.1698164030353606</v>
-      </c>
-      <c r="G8">
-        <v>1.4975242443846399</v>
       </c>
       <c r="H8">
         <v>0.307945213500459</v>
@@ -58803,8 +62038,27 @@
       <c r="AM8">
         <v>12.19373224316216</v>
       </c>
+      <c r="AN8">
+        <f>VLOOKUP(A8,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>3.9</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0.24603129000000001</v>
+      </c>
+      <c r="AP8">
+        <v>71</v>
+      </c>
+      <c r="AQ8">
+        <v>12</v>
+      </c>
+      <c r="AR8">
+        <v>17</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -58938,8 +62192,27 @@
       <c r="AM9">
         <v>3.5857268105225022</v>
       </c>
+      <c r="AN9">
+        <f>VLOOKUP(A9,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>7.3</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>0.20150601000000001</v>
+      </c>
+      <c r="AP9">
+        <v>65</v>
+      </c>
+      <c r="AQ9">
+        <v>15</v>
+      </c>
+      <c r="AR9">
+        <v>20</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -59073,8 +62346,27 @@
       <c r="AM10">
         <v>15.45086825431282</v>
       </c>
+      <c r="AN10">
+        <f>VLOOKUP(A10,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5.4</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>0.26498368</v>
+      </c>
+      <c r="AP10">
+        <v>67</v>
+      </c>
+      <c r="AQ10">
+        <v>15</v>
+      </c>
+      <c r="AR10">
+        <v>18</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -59085,16 +62377,16 @@
         <v>0.60269493679872499</v>
       </c>
       <c r="D11">
+        <v>9.0483857001020809</v>
+      </c>
+      <c r="E11">
+        <v>1.5219999511089699</v>
+      </c>
+      <c r="F11">
         <v>3.12882464513903E-3</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>2.5706371593365298</v>
-      </c>
-      <c r="F11">
-        <v>9.0483857001020809</v>
-      </c>
-      <c r="G11">
-        <v>1.5219999511089699</v>
       </c>
       <c r="H11">
         <v>0.18755393547931601</v>
@@ -59208,8 +62500,27 @@
       <c r="AM11">
         <v>10.948683580728391</v>
       </c>
+      <c r="AN11">
+        <f>VLOOKUP(A11,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5.7</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>0.32851930000000001</v>
+      </c>
+      <c r="AP11">
+        <v>59</v>
+      </c>
+      <c r="AQ11">
+        <v>15</v>
+      </c>
+      <c r="AR11">
+        <v>26</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -59343,8 +62654,27 @@
       <c r="AM12">
         <v>6.8365124272958724</v>
       </c>
+      <c r="AN12">
+        <f>VLOOKUP(A12,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>4.3</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>0.22664537000000001</v>
+      </c>
+      <c r="AP12">
+        <v>57</v>
+      </c>
+      <c r="AQ12">
+        <v>17</v>
+      </c>
+      <c r="AR12">
+        <v>26</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -59478,8 +62808,27 @@
       <c r="AM13">
         <v>5.3011018533450311</v>
       </c>
+      <c r="AN13">
+        <f>VLOOKUP(A13,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5.3</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>0.21910660000000001</v>
+      </c>
+      <c r="AP13">
+        <v>65</v>
+      </c>
+      <c r="AQ13">
+        <v>13</v>
+      </c>
+      <c r="AR13">
+        <v>22</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -59490,16 +62839,16 @@
         <v>0.54836870997748899</v>
       </c>
       <c r="D14">
+        <v>2.8713865883266299</v>
+      </c>
+      <c r="E14">
+        <v>1.9258957835409001</v>
+      </c>
+      <c r="F14">
         <v>9.7279689790228899E-2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>5</v>
-      </c>
-      <c r="F14">
-        <v>2.8713865883266299</v>
-      </c>
-      <c r="G14">
-        <v>1.9258957835409001</v>
       </c>
       <c r="H14">
         <v>0.37214171957750702</v>
@@ -59613,8 +62962,27 @@
       <c r="AM14">
         <v>3.92467678238576</v>
       </c>
+      <c r="AN14">
+        <f>VLOOKUP(A14,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>0.21718560000000001</v>
+      </c>
+      <c r="AP14">
+        <v>87</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>10</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -59748,8 +63116,27 @@
       <c r="AM15">
         <v>12.760844341578411</v>
       </c>
+      <c r="AN15">
+        <f>VLOOKUP(A15,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>0.28025612999999999</v>
+      </c>
+      <c r="AP15">
+        <v>75</v>
+      </c>
+      <c r="AQ15">
+        <v>11</v>
+      </c>
+      <c r="AR15">
+        <v>14</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -59760,16 +63147,16 @@
         <v>0.50115118527161195</v>
       </c>
       <c r="D16">
+        <v>5.8464800177633602</v>
+      </c>
+      <c r="E16">
+        <v>1.50383692915082</v>
+      </c>
+      <c r="F16">
         <v>0.103401182736782</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5.8464800177633602</v>
-      </c>
-      <c r="G16">
-        <v>1.50383692915082</v>
       </c>
       <c r="H16">
         <v>0.35281204357911</v>
@@ -59883,8 +63270,27 @@
       <c r="AM16">
         <v>6.8293217339118826</v>
       </c>
+      <c r="AN16">
+        <f>VLOOKUP(A16,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>0.18934232000000001</v>
+      </c>
+      <c r="AP16">
+        <v>69</v>
+      </c>
+      <c r="AQ16">
+        <v>18</v>
+      </c>
+      <c r="AR16">
+        <v>13</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -59895,16 +63301,16 @@
         <v>0.59021913862606701</v>
       </c>
       <c r="D17">
+        <v>9.14002547972202</v>
+      </c>
+      <c r="E17">
+        <v>1.50358773603173</v>
+      </c>
+      <c r="F17">
         <v>0.11686733821659</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>3.4628662076730801</v>
-      </c>
-      <c r="F17">
-        <v>9.14002547972202</v>
-      </c>
-      <c r="G17">
-        <v>1.50358773603173</v>
       </c>
       <c r="H17">
         <v>0.291281866002219</v>
@@ -60018,8 +63424,27 @@
       <c r="AM17">
         <v>9.7345266296152033</v>
       </c>
+      <c r="AN17">
+        <f>VLOOKUP(A17,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5.4</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>0.27647623999999998</v>
+      </c>
+      <c r="AP17">
+        <v>61</v>
+      </c>
+      <c r="AQ17">
+        <v>18</v>
+      </c>
+      <c r="AR17">
+        <v>21</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -60030,16 +63455,16 @@
         <v>0.61639417564414001</v>
       </c>
       <c r="D18">
-        <v>0.21819040430452299</v>
+        <v>6.8493785887837397</v>
       </c>
       <c r="E18">
+        <v>1.81792638360985</v>
+      </c>
+      <c r="F18">
+        <v>0.21815684880969899</v>
+      </c>
+      <c r="G18">
         <v>5</v>
-      </c>
-      <c r="F18">
-        <v>6.9338480038928099</v>
-      </c>
-      <c r="G18">
-        <v>1.80795631004311</v>
       </c>
       <c r="H18">
         <v>0.36681115820784899</v>
@@ -60153,8 +63578,27 @@
       <c r="AM18">
         <v>4.4231692755275276</v>
       </c>
+      <c r="AN18">
+        <f>VLOOKUP(A18,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>0.31012115000000001</v>
+      </c>
+      <c r="AP18">
+        <v>63</v>
+      </c>
+      <c r="AQ18">
+        <v>13</v>
+      </c>
+      <c r="AR18">
+        <v>24</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -60165,16 +63609,16 @@
         <v>0.52196406829956399</v>
       </c>
       <c r="D19">
+        <v>3.27553696476925</v>
+      </c>
+      <c r="E19">
+        <v>1.70745010333056</v>
+      </c>
+      <c r="F19">
         <v>0.183137500464054</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>3.1351603001366701</v>
-      </c>
-      <c r="F19">
-        <v>3.27553696476925</v>
-      </c>
-      <c r="G19">
-        <v>1.70745010333056</v>
       </c>
       <c r="H19">
         <v>0.40423001774140699</v>
@@ -60288,8 +63732,27 @@
       <c r="AM19">
         <v>4.509857410695119</v>
       </c>
+      <c r="AN19">
+        <f>VLOOKUP(A19,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>4.7</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>0.17973829</v>
+      </c>
+      <c r="AP19">
+        <v>65</v>
+      </c>
+      <c r="AQ19">
+        <v>13</v>
+      </c>
+      <c r="AR19">
+        <v>22</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -60423,8 +63886,27 @@
       <c r="AM20">
         <v>11.07766559130715</v>
       </c>
+      <c r="AN20">
+        <f>VLOOKUP(A20,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>0.29223512000000001</v>
+      </c>
+      <c r="AP20">
+        <v>67</v>
+      </c>
+      <c r="AQ20">
+        <v>15</v>
+      </c>
+      <c r="AR20">
+        <v>18</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -60435,16 +63917,16 @@
         <v>0.54334811948190598</v>
       </c>
       <c r="D21">
+        <v>6.3132819429836502</v>
+      </c>
+      <c r="E21">
+        <v>1.52579157678158</v>
+      </c>
+      <c r="F21">
         <v>0.110072447577142</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>4.4921452922813998</v>
-      </c>
-      <c r="F21">
-        <v>6.3132819429836502</v>
-      </c>
-      <c r="G21">
-        <v>1.52579157678158</v>
       </c>
       <c r="H21">
         <v>0.34109088209688798</v>
@@ -60558,8 +64040,27 @@
       <c r="AM21">
         <v>7.662160328193778</v>
       </c>
+      <c r="AN21">
+        <f>VLOOKUP(A21,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>0.21824908000000001</v>
+      </c>
+      <c r="AP21">
+        <v>65</v>
+      </c>
+      <c r="AQ21">
+        <v>15</v>
+      </c>
+      <c r="AR21">
+        <v>20</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -60570,16 +64071,16 @@
         <v>0.55293474432959999</v>
       </c>
       <c r="D22">
+        <v>2.8804822468627398</v>
+      </c>
+      <c r="E22">
+        <v>1.89111589984379</v>
+      </c>
+      <c r="F22">
         <v>0.10830678223040199</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>4.7382752275914797</v>
-      </c>
-      <c r="F22">
-        <v>2.8804822468627398</v>
-      </c>
-      <c r="G22">
-        <v>1.89111589984379</v>
       </c>
       <c r="H22">
         <v>0.32682293416641101</v>
@@ -60693,8 +64194,27 @@
       <c r="AM22">
         <v>4.1486889955452284</v>
       </c>
+      <c r="AN22">
+        <f>VLOOKUP(A22,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>0.23016819999999999</v>
+      </c>
+      <c r="AP22">
+        <v>67</v>
+      </c>
+      <c r="AQ22">
+        <v>13</v>
+      </c>
+      <c r="AR22">
+        <v>20</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -60828,8 +64348,27 @@
       <c r="AM23">
         <v>9.8766242178637356</v>
       </c>
+      <c r="AN23">
+        <f>VLOOKUP(A23,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>0.33467909000000001</v>
+      </c>
+      <c r="AP23">
+        <v>69</v>
+      </c>
+      <c r="AQ23">
+        <v>18</v>
+      </c>
+      <c r="AR23">
+        <v>13</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -60840,16 +64379,16 @@
         <v>0.52853107756652395</v>
       </c>
       <c r="D24">
+        <v>1.71644126403473</v>
+      </c>
+      <c r="E24">
+        <v>2.4207433662844502</v>
+      </c>
+      <c r="F24">
         <v>0.126321258565189</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>5</v>
-      </c>
-      <c r="F24">
-        <v>1.71644126403473</v>
-      </c>
-      <c r="G24">
-        <v>2.4207433662844502</v>
       </c>
       <c r="H24">
         <v>0.379794554999138</v>
@@ -60963,8 +64502,27 @@
       <c r="AM24">
         <v>2.8824820613002662</v>
       </c>
+      <c r="AN24">
+        <f>VLOOKUP(A24,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>0.1930258</v>
+      </c>
+      <c r="AP24">
+        <v>73</v>
+      </c>
+      <c r="AQ24">
+        <v>11</v>
+      </c>
+      <c r="AR24">
+        <v>16</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -60975,16 +64533,16 @@
         <v>0.55990855676697204</v>
       </c>
       <c r="D25">
+        <v>9.9182552660493801</v>
+      </c>
+      <c r="E25">
+        <v>1.3086607591985999</v>
+      </c>
+      <c r="F25">
         <v>0.60024691486605697</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>1.9076441536843201</v>
-      </c>
-      <c r="F25">
-        <v>9.9182552660493801</v>
-      </c>
-      <c r="G25">
-        <v>1.3086607591985999</v>
       </c>
       <c r="H25">
         <v>0.370279043916034</v>
@@ -61098,8 +64656,27 @@
       <c r="AM25">
         <v>7.388564333677337</v>
       </c>
+      <c r="AN25">
+        <f>VLOOKUP(A25,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>0.21209697</v>
+      </c>
+      <c r="AP25">
+        <v>67</v>
+      </c>
+      <c r="AQ25">
+        <v>15</v>
+      </c>
+      <c r="AR25">
+        <v>18</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -61110,16 +64687,16 @@
         <v>0.46877792296142601</v>
       </c>
       <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1.3377421305122299</v>
+      </c>
+      <c r="F26">
         <v>0.117473895300653</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>4.6466819521028198</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>1.3377421305122299</v>
       </c>
       <c r="H26">
         <v>0.190909943627735</v>
@@ -61232,6 +64809,25 @@
       </c>
       <c r="AM26">
         <v>9.1989102147986017</v>
+      </c>
+      <c r="AN26">
+        <f>VLOOKUP(A26,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>0.20800708000000001</v>
+      </c>
+      <c r="AP26">
+        <v>59</v>
+      </c>
+      <c r="AQ26">
+        <v>13</v>
+      </c>
+      <c r="AR26">
+        <v>28</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Data/params_struc.xlsx
+++ b/Data/params_struc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramodhegde/Documents/DSA/chapter_1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2E7415-2A04-6A4F-BC31-378EF111C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE4A26-8B6A-924A-BE24-E8DB1358F15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60826,8 +60826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/params_struc.xlsx
+++ b/Data/params_struc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramodhegde/Documents/DSA/chapter_1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE4A26-8B6A-924A-BE24-E8DB1358F15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32C0A8-6A2A-344E-921F-668420E825ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30400" yWindow="660" windowWidth="38080" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>thetar</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Clay</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>pH</t>
   </si>
 </sst>
 </file>
@@ -60824,4010 +60830,4191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS26"/>
+  <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2:AU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.5" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.55089532971604305</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6.7688407255760099</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.2797324123882601</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.2063102103432701E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.22095922142916</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.4689448747819403E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.99382097489874799</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.31524830263934001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.108033100476431</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>7.8987349999999998E-2</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f>VLOOKUP(A2,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.236260951568636</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f>VLOOKUP(A2,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.20721520216290801</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>14.925269999999999</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3.072238</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>8.1039340000000006</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>73.898555000000002</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f>VLOOKUP(A2,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.86717932559951894</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <f>VLOOKUP(A2,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.5409137482896134E-4</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <f>VLOOKUP(A2,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.7150000000000001</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f>VLOOKUP(A2,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.141807370433984</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.16355239271139699</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.19205636635086501</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.23082019381416</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.286166015399896</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.37069509890242902</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.51335854624975297</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.79740746557668996</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.5912211498050099</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <f>VLOOKUP(A2,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>91.092874206713205</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0.41078285810616849</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>13.528273053900641</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>47.022233910405149</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>28.899754369654129</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>10.138955807933909</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <f>VLOOKUP(A2,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>4.5</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AP2" s="4">
         <v>0.23564703000000001</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>61</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>17</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>22</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>46</v>
       </c>
+      <c r="AU2">
+        <f>VLOOKUP(A2,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>4.1171279350725801E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.57184264678755203</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6.3602915608653996</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.64909266691685</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.20233324492132601</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.9165302229996901</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.45682873843051502</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8.6121082802518307E-3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.99901663866312695</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.36615142449791299</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5.0898297972480397E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>4.4819619999999998E-2</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f>VLOOKUP(A3,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.32133180762351898</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f>VLOOKUP(A3,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.31525312652543203</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.6743269999999999</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1.354284</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>10.739989</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>86.231399999999994</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <f>VLOOKUP(A3,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.97151713820525598</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <f>VLOOKUP(A3,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>5.7232232000309897E-5</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <f>VLOOKUP(A3,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.4650000000000001</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>VLOOKUP(A3,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.1502061626997899E-3</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>3.7875003622411399E-3</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>4.6611228723923096E-3</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>5.9114950239483096E-3</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>7.8063179945933002E-3</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>1.09148487442379E-2</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.66544524766323E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>2.9565209949979899E-2</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>7.3544190722846597E-2</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <f>VLOOKUP(A3,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.597958528742197</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>9.4675337039924739E-3</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1.3767862878220869</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>61.472235249284211</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>26.684621196754449</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>10.456889732435259</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <f>VLOOKUP(A3,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AP3" s="4">
         <v>0.20569122000000001</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>61</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>17</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>22</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>46</v>
       </c>
+      <c r="AU3">
+        <f>VLOOKUP(A3,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>2.7187450498082199E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.61770838889858404</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.389037914365221</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.8974425333284599</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8.0263653440250895</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.2068319117629303</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.74928610201017098</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.35056592475691E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.99941624490857195</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.43764691136183398</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5.8002833814070398E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>3.8484520000000001E-2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f>VLOOKUP(A4,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.39916239239585199</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f>VLOOKUP(A4,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.37964407754776403</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4.9815950000000004</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.9657960000000001</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>12.675867</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>79.376741999999993</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f>VLOOKUP(A4,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.6728240929208813</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f>VLOOKUP(A4,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>3.6904922013992748E-4</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f>VLOOKUP(A4,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.82</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f>VLOOKUP(A4,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14499999999999999</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>5.2076709254315103E-3</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>6.4353098924804404E-3</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>8.1677648104572197E-3</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.0730362361000501E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>1.47643999234786E-2</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>2.1687977545947701E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>3.5202673328581603E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>6.7901938079307195E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.19205763889691099</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <f>VLOOKUP(A4,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>95.183945562665201</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1.604296274903615E-2</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4.2013784841194468</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>65.565677683368733</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>25.135791137045249</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>5.0811097327175361</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <f>VLOOKUP(A4,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>6.5</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AP4" s="4">
         <v>0.18006148</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>53</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>21</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>26</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>46</v>
       </c>
+      <c r="AU4">
+        <f>VLOOKUP(A4,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.51529430941593202</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4.6130729718797898</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.2870963885598301</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.2851127962777098</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.74808454928716905</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.3576320535112601E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.99830079997502397</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.240822006275732</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>8.0843615963238996E-2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>5.8625980000000001E-2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f>VLOOKUP(A5,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.18219603007528801</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f>VLOOKUP(A5,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.159978390312493</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>12.08061</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.5264329999999999</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>6.6970890000000001</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>78.695864999999998</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f>VLOOKUP(A5,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.187864842792633</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f>VLOOKUP(A5,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.3368217179545011E-4</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f>VLOOKUP(A5,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f>VLOOKUP(A5,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.1</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.11221573878021</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.129529552189456</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.152244911065508</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.183167440727246</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.22736896596299899</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.29497107521065502</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.40926296430280101</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.63734699641897596</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.27704181932074</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f>VLOOKUP(A5,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.976265992821993</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.32529666316364497</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>10.9462617045827</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>38.750798243863578</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>41.374832402028559</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>8.6028109863615185</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <f>VLOOKUP(A5,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AP5" s="4">
         <v>0.2744723</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>63</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>18</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>19</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>47</v>
       </c>
+      <c r="AU5">
+        <f>VLOOKUP(A5,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1.6532764757645899E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.579697561328822</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5.4923990000345997</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.6685463614039899</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.136773821877961</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.7091702279047198</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.378155544852949</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.1171458713945601E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.99824928755114295</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.33710878706808201</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3.2691141180019999E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>2.1591539999999999E-2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f>VLOOKUP(A6,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.31551724730399799</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f>VLOOKUP(A6,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.30441764588806203</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.7730739999999998</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.5496349999999999</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>16.277220100000001</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>78.404891000000006</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f>VLOOKUP(A6,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.95589471239441282</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f>VLOOKUP(A6,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.0805050696610085E-4</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f>VLOOKUP(A6,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f>VLOOKUP(A6,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.5165366585484799E-3</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>4.2426550611434199E-3</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>5.2426783405282104E-3</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>6.6820511480664398E-3</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>8.8787560466410901E-3</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>1.2516173697653E-2</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.9320994927549701E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>3.4951190269258997E-2</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>9.0552499653819493E-2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <f>VLOOKUP(A6,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.911515817552001</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1.060176806541754E-2</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>2.2223158991605358</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>60.648302780957529</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>31.134908122898711</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>5.9838714289178094</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <f>VLOOKUP(A6,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AP6" s="4">
         <v>0.24258877000000001</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>59</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>13</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>28</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>46</v>
       </c>
+      <c r="AU6">
+        <f>VLOOKUP(A6,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.53907364930719504</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3.8761807037486</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.8972754768089299</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9.2293182114893305E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.6805126127061998</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.38515934124662399</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.3138192172022301E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.99901632616651204</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.30075253094488302</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.8695781638428201E-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>3.4999100000000002E-3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f>VLOOKUP(A7,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.29725262137587899</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f>VLOOKUP(A7,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.28205674930645502</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3.5161950000000002</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>4.2507510000000002</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>21.414406</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>70.818647999999996</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f>VLOOKUP(A7,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.0882511562334738</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f>VLOOKUP(A7,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>5.0818274965792045E-5</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f>VLOOKUP(A7,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.9450000000000001</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f>VLOOKUP(A7,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.08</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.8167858498131698E-4</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>8.5513351100431102E-4</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.1053804289765301E-3</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.48572860463151E-3</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.1054301632688999E-3</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.2184349074398798E-3</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.5339224752956303E-3</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>1.1719297564961701E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>4.0184375193275799E-2</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <f>VLOOKUP(A7,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>99.922835993187803</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2.129516061576651E-3</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2.648710537095881</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>62.749467766478197</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>33.055566561909899</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1.5441256184544441</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <f>VLOOKUP(A7,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5.4</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AP7" s="4">
         <v>0.23832112</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>61</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>13</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>26</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>46</v>
       </c>
+      <c r="AU7">
+        <f>VLOOKUP(A7,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>3.6766529113661899E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.57693016360529803</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>8.1698164030353606</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.4975242443846399</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.16488531142361401</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.8882584406812302</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.307945213500459</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5.3298295992108398E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.99486010812555203</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>13</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.330898877228539</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5.8647519230751698E-2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>4.7900640000000001E-2</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f>VLOOKUP(A8,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.28299823628052001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f>VLOOKUP(A8,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.27225135799778799</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.558945</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.8691180000000001</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>11.570978</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>83.000957999999997</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f>VLOOKUP(A8,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.95091945526086863</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f>VLOOKUP(A8,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.1865820513857295E-3</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f>VLOOKUP(A8,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.27</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f>VLOOKUP(A8,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.40279828296046E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.6578966997634999E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>2.0011667980133901E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.4821614647006801E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>3.1932282587382503E-2</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>4.3254729009570801E-2</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>6.3388309642918E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.106403909039902</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.24100217693460199</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <f>VLOOKUP(A8,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.830494325688093</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>4.1519296584046267E-2</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3.0707225400786702</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>54.275127147613219</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>30.418898772561899</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>12.19373224316216</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <f>VLOOKUP(A8,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AP8" s="4">
         <v>0.24603129000000001</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>71</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>12</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>17</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>47</v>
       </c>
+      <c r="AU8">
+        <f>VLOOKUP(A8,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.52282882464684399</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.66692120491943996</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.4443562193325601</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6.1851668287701296</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.97896865230427</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.63900942569283803</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3.27160436100042E-2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.99653102967144702</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.32132281156119302</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>7.0906395937209807E-2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>4.2988129999999999E-2</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f>VLOOKUP(A9,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.27833467834702902</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f>VLOOKUP(A9,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.25041641562398398</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>12.21242</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3.5529449999999998</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>10.596062</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>73.638574000000006</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f>VLOOKUP(A9,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.83825484628039704</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f>VLOOKUP(A9,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.2054144572533087E-4</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f>VLOOKUP(A9,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>3.915</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f>VLOOKUP(A9,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.185</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.7697948928484006E-2</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.9534472811177995E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>9.5360016463020697E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.117372277376083</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.14963431367185301</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.20047351045214601</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.28968816318341201</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.47683117704579198</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.0442777162600601</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <f>VLOOKUP(A9,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.063536985617901</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0.19931637320937451</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>10.9376269308302</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>56.863199364162561</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>28.414130521275371</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>3.5857268105225022</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <f>VLOOKUP(A9,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>7.3</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AP9" s="4">
         <v>0.20150601000000001</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>65</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>15</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>20</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>46</v>
       </c>
+      <c r="AU9">
+        <f>VLOOKUP(A9,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.0999999999999996</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.52775777484869901</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.20467500641063</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.78422199888599</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.80395172484868704</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>9.3231844958477306E-2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.99579941068469202</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>12</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.262774099809303</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.118934055956104</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>9.4578679999999998E-2</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f>VLOOKUP(A10,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.16819541683607001</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f>VLOOKUP(A10,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.14384004385319801</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>14.608280000000001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.5309910000000002</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6.2816260000000002</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>76.579103000000003</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f>VLOOKUP(A10,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.89899008558417393</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f>VLOOKUP(A10,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.6969900745081776E-4</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f>VLOOKUP(A10,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.5249999999999999</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f>VLOOKUP(A10,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.17383156884506901</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.19881446453708099</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.23127096142543099</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.27496250646012399</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.336610347425846</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.42944428773891202</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.58339583120943705</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.88281913260123601</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.68969477839389</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <f>VLOOKUP(A10,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>87.418809820744897</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.49988143641078769</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>13.274009473171599</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>34.009580641662367</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>36.765660194442418</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>15.45086825431282</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <f>VLOOKUP(A10,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5.4</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AP10" s="4">
         <v>0.26498368</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>67</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>15</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>18</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>47</v>
       </c>
+      <c r="AU10">
+        <f>VLOOKUP(A10,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>1.6762934904213999E-2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.60269493679872499</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>9.0483857001020809</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.5219999511089699</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3.12882464513903E-3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.5706371593365298</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.18755393547931601</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>7.6005961510476103E-2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.99611936019368696</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>12</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.27417563499824399</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.14566520697121901</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>0.12853597999999999</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f>VLOOKUP(A11,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.14563965957831199</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f>VLOOKUP(A11,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.128510428027025</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>21.061810000000001</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.083691</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3.311607</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>74.542895000000001</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f>VLOOKUP(A11,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.8499973214666674</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f>VLOOKUP(A11,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.3978331682888331E-4</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f>VLOOKUP(A11,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.4550000000000001</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f>VLOOKUP(A11,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.115</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.3839014945366903E-2</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>4.3169249909903201E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>5.70049310821239E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>7.8730116281196902E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.115535512152735</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.18483606719779599</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.33755537128256602</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.77443826491252699</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.8765971505722199</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <f>VLOOKUP(A11,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>92.398823575661197</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0.1074057401443211</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>20.60074616750202</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>29.394475287919239</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>38.948689223706033</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>10.948683580728391</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <f>VLOOKUP(A11,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5.7</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AP11" s="4">
         <v>0.32851930000000001</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>59</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>15</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>26</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>46</v>
       </c>
+      <c r="AU11">
+        <f>VLOOKUP(A11,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.54521049694976798</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.67485547374478605</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.3143442039054201</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7.0109624017141696</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.1354502242744098</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.60832618411296202</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.9578956283477899E-3</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.99960079802611701</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>12</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.31856513032253603</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.109784250307533</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>7.7230699999999999E-2</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f>VLOOKUP(A12,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.24133442544762801</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f>VLOOKUP(A12,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.208780880015002</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>16.117719999999998</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3.5598169999999998</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>9.4487719999999999</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>70.873688999999999</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f>VLOOKUP(A12,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.61544384652746742</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f>VLOOKUP(A12,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>9.5321269159136279E-4</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f>VLOOKUP(A12,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.7649999999999999</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f>VLOOKUP(A12,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.09</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.13748854047661099</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.15918708186577701</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.187748361755808</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.226774104627843</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.28280060445261002</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.36893230468488603</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.51549298323512704</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.81050584440912998</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.6491164121549799</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <f>VLOOKUP(A12,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>91.576460951556598</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0.39962624546838132</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>14.585628539238529</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>45.788243127561927</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>32.389989660435283</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>6.8365124272958724</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <f>VLOOKUP(A12,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>4.3</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AP12" s="4">
         <v>0.22664537000000001</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>57</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>17</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>26</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>46</v>
       </c>
+      <c r="AU12">
+        <f>VLOOKUP(A12,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.56707350463063599</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.13232582587284</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.36499841716643</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4.1570689372465397</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2.0257638066047501</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.51485356384351799</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4.4730888292400803E-3</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.99951365500438905</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>11</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.34796690194435298</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.14485542280914701</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>9.7317409999999993E-2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f>VLOOKUP(A13,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.25064948918984198</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f>VLOOKUP(A13,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.203111479135205</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>21.580850000000002</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>4.8726430000000001</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>11.132707</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>62.413803000000001</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f>VLOOKUP(A13,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.94783483530857604</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f>VLOOKUP(A13,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>3.2217799565691498E-4</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f>VLOOKUP(A13,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.52</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f>VLOOKUP(A13,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.16</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.15897038618097001</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.18510926204258901</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.21972527475880299</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.26735301483504897</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.33628106981672501</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.44326901072532399</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.627504274632812</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>1.0042936385119201</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.1019338259586702</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <f>VLOOKUP(A13,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>90.599717180012604</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.46437955847644352</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>19.531241747100449</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>45.04228030467867</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>29.660996536399409</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>5.3011018533450311</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <f>VLOOKUP(A13,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5.3</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AP13" s="4">
         <v>0.21910660000000001</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>65</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>13</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>22</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>46</v>
       </c>
+      <c r="AU13">
+        <f>VLOOKUP(A13,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.0999999999999996</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>1.6852675502371E-2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.54836870997748899</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.8713865883266299</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.9258957835409001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9.7279689790228899E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.37214171957750702</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6.7458524083824096E-3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.99935088802911498</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>14</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.33118310681052698</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.0569020333277298E-2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>1.8048700000000001E-2</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f>VLOOKUP(A14,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.313134405219749</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f>VLOOKUP(A14,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.31061408647724897</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.68059309999999995</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.85037149999999995</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>23.6097535</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>74.859281899999999</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f>VLOOKUP(A14,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.8361333066459028</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <f>VLOOKUP(A14,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>7.7263513200417921E-4</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f>VLOOKUP(A14,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.7749999999999999</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <f>VLOOKUP(A14,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>5.7135631684232405E-4</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.08295254972298E-4</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>9.0220378467106496E-4</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.1901424880871199E-3</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>1.6454640211418E-3</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>2.43115565979509E-3</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>3.9751851105837002E-3</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>7.7450794692468699E-3</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.2267790909862601E-2</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <f>VLOOKUP(A14,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.877593707014299</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1.7652444828727611E-3</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.5468027039191915</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>67.85880659300615</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>27.66794867620602</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>3.92467678238576</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <f>VLOOKUP(A14,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AP14" s="4">
         <v>0.21718560000000001</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>87</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>3</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>10</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>48</v>
       </c>
+      <c r="AU14">
+        <f>VLOOKUP(A14,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.9000000000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.574272382712395</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>9.4026575998820796</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.2588116470717401</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>9.9971208643337395</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.84540787266982</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.90602530152104499</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4.2034205929163099E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.99840399155871495</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.29401625620475702</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.10614199522363101</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>7.9340110000000005E-2</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f>VLOOKUP(A15,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.214676148228962</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f>VLOOKUP(A15,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.187874260981126</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>13.57555</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.6844899999999998</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>7.0098440000000002</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>76.730114</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f>VLOOKUP(A15,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.2471199381653677</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <f>VLOOKUP(A15,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>2.5853180662208829E-4</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f>VLOOKUP(A15,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.26</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <f>VLOOKUP(A15,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>5.5E-2</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>0.13705246433954901</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.15770451538321101</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.18470970013285001</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.22133334652484499</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.273455397155701</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.35275629211818199</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.48596137735810402</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.74951082134637903</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.47892609437228</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <f>VLOOKUP(A15,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>91.178238603472806</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.39621025531168819</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>12.31292308206918</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>41.353365122208402</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>33.176657198832316</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>12.760844341578411</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <f>VLOOKUP(A15,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AO15" s="4">
+      <c r="AP15" s="4">
         <v>0.28025612999999999</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>75</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>11</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>14</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>47</v>
       </c>
+      <c r="AU15">
+        <f>VLOOKUP(A15,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.9000000000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>1.53250341272573E-2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.50115118527161195</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5.8464800177633602</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.50383692915082</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.103401182736782</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.35281204357911</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.27891014275322E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.99862973305646696</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>13</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.31180886397003099</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3.3567326917379403E-2</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>2.5567820000000002E-2</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f>VLOOKUP(A16,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.28624104377829401</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f>VLOOKUP(A16,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.27824153705265198</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.3820869999999998</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.427799</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>21.895657</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>73.294455999999997</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f>VLOOKUP(A16,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.84664232855630439</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <f>VLOOKUP(A16,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>5.9551124158942876E-4</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f>VLOOKUP(A16,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.925</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <f>VLOOKUP(A16,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.12</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.5176916129657299E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.7947731256122101E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>2.16782348703542E-2</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.6908386230738001E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>3.4644650229382998E-2</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>4.6969858766144797E-2</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>6.8894897539750505E-2</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.115727853735346</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.261792232901427</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <f>VLOOKUP(A16,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.067677393319698</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>4.4943912395787017E-2</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2.9914348177685799</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>63.01520984811517</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>27.119089687808579</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>6.8293217339118826</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <f>VLOOKUP(A16,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AP16" s="4">
         <v>0.18934232000000001</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>69</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>18</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>13</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>47</v>
       </c>
+      <c r="AU16">
+        <f>VLOOKUP(A16,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>1.5680618917872199E-2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.59021913862606701</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>9.14002547972202</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.50358773603173</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.11686733821659</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.4628662076730801</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.291281866002219</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.4799180023694101E-2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.99841342118500997</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>13</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.31374289754961898</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3.6489580439268803E-2</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>2.6425420000000002E-2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f>VLOOKUP(A17,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.28731747959493598</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f>VLOOKUP(A17,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.27725331711035001</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3.3059850000000002</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.9138850000000001</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>15.906914</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>78.873215999999999</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f>VLOOKUP(A17,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.83337037130795677</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <f>VLOOKUP(A17,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.4604086786285938E-4</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f>VLOOKUP(A17,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>3.2450000000000001</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <f>VLOOKUP(A17,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.3355312044737E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.5793239137691501E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.9075527662028802E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.36772679312445E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>3.0484063286729202E-2</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>4.1328829913112097E-2</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>6.06221863613573E-2</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.10184555381051601</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.230578067127541</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <f>VLOOKUP(A17,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.591324075290501</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>3.9548833845727313E-2</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2.848504485361679</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>54.094099514527358</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>33.283320536650031</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>9.7345266296152033</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <f>VLOOKUP(A17,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5.4</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AP17" s="4">
         <v>0.27647623999999998</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>61</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>18</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>21</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>46</v>
       </c>
+      <c r="AU17">
+        <f>VLOOKUP(A17,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.61639417564414001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6.8493785887837397</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.81792638360985</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.21815684880969899</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.36681115820784899</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5.8905787168612403E-2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.998164150035449</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>12</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.305192457366253</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3.2987687170403001E-3</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>1.31375E-3</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f>VLOOKUP(A18,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.30387871181307902</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f>VLOOKUP(A18,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.30189368864921301</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.53226969999999996</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.30373359999999999</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.8565548999999999</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>96.307441800000007</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f>VLOOKUP(A18,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.78883037351633645</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <f>VLOOKUP(A18,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>3.157640386223982E-4</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <f>VLOOKUP(A18,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.62</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <f>VLOOKUP(A18,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>7.5546809234386197E-4</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>9.2529939786026099E-4</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.16269807310897E-3</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.5100670802742501E-3</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.0500508401982199E-3</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>2.9629631371322399E-3</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>4.7117449203162099E-3</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>8.8373119224370508E-3</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>2.3885342372072901E-2</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <f>VLOOKUP(A18,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>99.933616941955194</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2.3086444008883471E-3</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.45337369263652472</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>56.005195799733698</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>39.115952587701358</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4.4231692755275276</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <f>VLOOKUP(A18,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>5.5</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="AP18" s="4">
         <v>0.31012115000000001</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>63</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>13</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>24</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>46</v>
       </c>
+      <c r="AU18">
+        <f>VLOOKUP(A18,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>1.6688347178276001E-2</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.52196406829956399</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3.27553696476925</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.70745010333056</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.183137500464054</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3.1351603001366701</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.40423001774140699</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6.8640944182831801E-2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.99217087289635997</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>14</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.34222577435333501</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2.6670390501185502E-2</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>2.0555569999999999E-2</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f>VLOOKUP(A19,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.32167020660231399</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f>VLOOKUP(A19,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.31555538385214998</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1.8880729999999999</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.4161170000000001</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>11.602268</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>85.093541999999999</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <f>VLOOKUP(A19,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.85705267420463671</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <f>VLOOKUP(A19,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.2036087641606694E-4</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f>VLOOKUP(A19,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f>VLOOKUP(A19,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.1</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>3.3425432024445801E-3</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>4.0440843892713798E-3</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>5.0120512404476496E-3</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>6.4076254091876301E-3</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>8.5402398017392894E-3</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>1.20731508778391E-2</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.8673045272141801E-2</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>3.3736943651188303E-2</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>8.6032116114596796E-2</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <f>VLOOKUP(A19,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.579927070183899</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1.0102299358236141E-2</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1.5705098991190389</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>69.806095240181691</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>24.103435150645922</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>4.509857410695119</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <f>VLOOKUP(A19,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>4.7</v>
       </c>
-      <c r="AO19" s="4">
+      <c r="AP19" s="4">
         <v>0.17973829</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>65</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>13</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>22</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>46</v>
       </c>
+      <c r="AU19">
+        <f>VLOOKUP(A19,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.55340655047159404</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>9.5352228468429505</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.32493530663922</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9.7653755771111896</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3.7147091385487498</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2.80575315026582E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.99906044466842003</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>12</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.261171429116277</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>7.4624394873853805E-2</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>5.1865620000000001E-2</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f>VLOOKUP(A20,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.209305808687971</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f>VLOOKUP(A20,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.186547034242423</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>10.93768</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2.4858929999999999</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>6.814273</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>79.762153999999995</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f>VLOOKUP(A20,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.75388664221097512</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <f>VLOOKUP(A20,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.8304446613892086E-4</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f>VLOOKUP(A20,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>2.5249999999999999</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <f>VLOOKUP(A20,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.11</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>9.0253602978938294E-2</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>0.10461991964723701</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>0.123553493160413</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.149460672972627</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.186714780007284</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.244098867464007</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.34197977330037999</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.539640574392382</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.1043236627764099</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <f>VLOOKUP(A20,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>94.6812853416926</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.26260191529128413</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>9.8900233358234093</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>43.080043830515891</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>35.689665327062272</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>11.07766559130715</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <f>VLOOKUP(A20,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AO20" s="4">
+      <c r="AP20" s="4">
         <v>0.29223512000000001</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>67</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>15</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>18</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>47</v>
       </c>
+      <c r="AU20">
+        <f>VLOOKUP(A20,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>1.9004831777974601E-2</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.54334811948190598</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6.3132819429836502</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.52579157678158</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.110072447577142</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4.4921452922813998</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.34109088209688798</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5.3154708212258799E-3</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.99949969624886004</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>11</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.32509903604557</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3.6241388791280298E-2</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>2.8322819999999999E-2</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f>VLOOKUP(A21,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.296776216068248</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f>VLOOKUP(A21,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.28885764725428997</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2.9778850000000001</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1.4271780000000001</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>19.027972999999999</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>76.566963999999999</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f>VLOOKUP(A21,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.74305198863574407</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <f>VLOOKUP(A21,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>6.0192519862394549E-5</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f>VLOOKUP(A21,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.325</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <f>VLOOKUP(A21,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.2188939303682599E-2</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.4449635910677199E-2</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.7501328544916098E-2</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>2.1792582897328602E-2</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.8162115021140501E-2</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.8352020156756997E-2</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.6572469496668498E-2</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>9.5762365162019303E-2</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.219324582293523</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <f>VLOOKUP(A21,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>95.796225087475804</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>3.6174181015058732E-2</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>2.6135434856748381</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>60.64112765962301</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>29.046994345493321</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>7.662160328193778</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <f>VLOOKUP(A21,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AP21" s="4">
         <v>0.21824908000000001</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>65</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>15</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>20</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>46</v>
       </c>
+      <c r="AU21">
+        <f>VLOOKUP(A21,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>1.7636728682085299E-2</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.55293474432959999</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.8804822468627398</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.89111589984379</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.10830678223040199</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.7382752275914797</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.32682293416641101</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.47492496277757E-2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.99852564653562603</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>14</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.32276654898734503</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2.2256447104454E-2</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>1.9227629999999999E-2</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <f>VLOOKUP(A22,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.30353892393594001</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f>VLOOKUP(A22,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.30051010188289101</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.83632879999999998</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.81684489999999998</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>17.658566400000002</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>80.688259900000006</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f>VLOOKUP(A22,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.96969162735697012</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <f>VLOOKUP(A22,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.2480130820919502E-4</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f>VLOOKUP(A22,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.49</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <f>VLOOKUP(A22,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.1</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>8.31139413774852E-4</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.02634354019641E-3</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.3016090129505499E-3</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.7084231251833699E-3</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.3481884471810402E-3</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.4448976665638802E-3</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.5824602250729499E-3</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>1.07440269151797E-2</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>3.0280803567081401E-2</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <f>VLOOKUP(A22,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.742233924923397</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2.5587971356970901E-3</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.68536545861225573</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>66.162914335037783</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>29.00047241366903</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>4.1486889955452284</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <f>VLOOKUP(A22,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>3.5</v>
       </c>
-      <c r="AO22" s="4">
+      <c r="AP22" s="4">
         <v>0.23016819999999999</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>67</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>13</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>20</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>46</v>
       </c>
+      <c r="AU22">
+        <f>VLOOKUP(A22,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>3.3276038865517402E-2</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.66026765769304496</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.08413422548192</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.6607783259578599</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>10</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2.3707104547154798</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.61414143008445798</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>6.3618363720741797E-2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.99858743301808495</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>13</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.32558856423578197</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6.0851786902748797E-2</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>4.6426700000000001E-2</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f>VLOOKUP(A23,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.27916186077330302</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f>VLOOKUP(A23,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.26473677733303302</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>4.0588090000000001</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1.7217309999999999</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>6.230105</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>87.989355000000003</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f>VLOOKUP(A23,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.67192663231735916</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <f>VLOOKUP(A23,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.5366411486452334E-3</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f>VLOOKUP(A23,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>4.6449999999999996</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <f>VLOOKUP(A23,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>0.255</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.0508486249115601E-2</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.2646887698315699E-2</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>1.5580459127076699E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>1.9782141225284301E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>2.61533508628609E-2</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>3.6609459696823901E-2</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>5.5910557694221E-2</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>9.9234309337794799E-2</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.24531184716334201</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <f>VLOOKUP(A23,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>94.285077790968401</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>3.1609584454098172E-2</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>3.5455220797146891</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>49.516148501412033</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>37.03009561655545</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>9.8766242178637356</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <f>VLOOKUP(A23,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="AO23" s="4">
+      <c r="AP23" s="4">
         <v>0.33467909000000001</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>69</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>18</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>13</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>47</v>
       </c>
+      <c r="AU23">
+        <f>VLOOKUP(A23,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>1.45938889902376E-2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.52853107756652395</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.71644126403473</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.4207433662844502</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.126321258565189</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.379794554999138</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.3906789171250501E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.99857585345074096</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>11</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.33550528119947998</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.52883823845456E-2</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>1.4711689999999999E-2</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f>VLOOKUP(A24,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.32079359094726201</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f>VLOOKUP(A24,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.32021689881493398</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1338541</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.28892119999999999</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>12.825763</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>86.751461599999999</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f>VLOOKUP(A24,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.95533423122585792</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <f>VLOOKUP(A24,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>6.3202145855514272E-4</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <f>VLOOKUP(A24,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.31</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <f>VLOOKUP(A24,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>1.28780123751748E-5</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>1.6873008708254701E-5</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>2.2875531754584302E-5</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>3.2411815299781502E-5</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>4.8724581804299301E-5</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>7.9650861467390598E-5</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>1.4801992827141001E-4</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>3.4370678951580001E-4</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>1.3167500744424899E-3</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <f>VLOOKUP(A24,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>97.236528782175995</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>4.1875775272981651E-5</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>9.594137051486594E-2</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>76.819567487767927</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>20.201967204641662</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>2.8824820613002662</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <f>VLOOKUP(A24,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>3.6</v>
       </c>
-      <c r="AO24" s="4">
+      <c r="AP24" s="4">
         <v>0.1930258</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>73</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>11</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>16</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>47</v>
       </c>
+      <c r="AU24">
+        <f>VLOOKUP(A24,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.55990855676697204</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>9.9182552660493801</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.3086607591985999</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.60024691486605697</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.9076441536843201</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.370279043916034</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3.1872839216528399E-2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.99823771193809996</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>12</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.34781158280152003</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6.1387575616899899E-2</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>4.0180569999999999E-2</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f>VLOOKUP(A25,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.30763101716920499</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f>VLOOKUP(A25,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.28642400718462002</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>9.0558700000000005</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.6401599999999998</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>8.8977970000000006</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>79.406173999999993</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f>VLOOKUP(A25,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>0.99551471175924777</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <f>VLOOKUP(A25,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>1.0745844939368491E-3</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <f>VLOOKUP(A25,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.9750000000000001</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <f>VLOOKUP(A25,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.5681517381885504E-2</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.6133864057618295E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>8.9921618266087494E-2</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.108811778300962</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.136025583749153</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.17805965921559999</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.250071476066623</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.39661796287699203</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.82259894228782005</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <f>VLOOKUP(A25,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.035228612050005</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.1911055790949758</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>8.0892362183109245</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>60.377388615959561</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>23.95370525295721</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>7.388564333677337</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <f>VLOOKUP(A25,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>4.5</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="AP25" s="4">
         <v>0.21209697</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>67</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>15</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>18</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>47</v>
       </c>
+      <c r="AU25">
+        <f>VLOOKUP(A25,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
         <v>1.6828512543185E-4</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.46877792296142601</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.3377421305122299</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.117473895300653</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4.6466819521028198</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.190909943627735</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8.9207618625642398E-3</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.99926842198865995</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>12</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.26077084466558598</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4.6800602404666498E-2</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>3.2022910000000002E-2</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f>VLOOKUP(A26,[1]swrc_indices!$A$2:$G$26,6,TRUE)</f>
         <v>0.22874793634360299</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f>VLOOKUP(A26,[1]swrc_indices!$A$2:$G$26,7,TRUE)</f>
         <v>0.21397024226091901</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>8.1968709999999998</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.0829420000000001</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>13.167526000000001</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>76.552660000000003</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f>VLOOKUP(A26,[2]Sheet1!$A$2:$T$26,2,FALSE)</f>
         <v>1.0084220602192486</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <f>VLOOKUP(A26,[2]Sheet1!$A$2:$T$26,17,FALSE)</f>
         <v>4.2628145214023734E-4</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <f>VLOOKUP(A26,[3]resp_finalized!$A$2:$AA$650,13,1)</f>
         <v>1.175</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <f>VLOOKUP(A26,[3]resp_finalized!$A$2:$AA$650,14,1)</f>
         <v>5.5E-2</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,2,FALSE)</f>
         <v>6.4696296149698698E-2</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,3,FALSE)</f>
         <v>7.5101782017149094E-2</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,4,FALSE)</f>
         <v>8.8836287606560899E-2</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,5,FALSE)</f>
         <v>0.10766220319762899</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,6,FALSE)</f>
         <v>0.13478830667952801</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,7,FALSE)</f>
         <v>0.17667269691922199</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,8,FALSE)</f>
         <v>0.24833034814970301</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,9,FALSE)</f>
         <v>0.39361737273566799</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,10,FALSE)</f>
         <v>0.81127942984720702</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <f>VLOOKUP(A26,[4]deciles_wide!$A$2:$L$26,11,FALSE)</f>
         <v>96.205183575399104</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.18847671946650429</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>7.3935979382604771</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>53.23169455310925</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>29.98732057436516</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>9.1989102147986017</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <f>VLOOKUP(A26,[5]soilnutrients_piedmont!$A$2:$AX$26,5,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="AO26" s="4">
+      <c r="AP26" s="4">
         <v>0.20800708000000001</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>59</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>13</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>28</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>46</v>
+      </c>
+      <c r="AU26">
+        <f>VLOOKUP(A26,[5]soilnutrients_piedmont!$A$2:$AX$26,7,FALSE)</f>
+        <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>
